--- a/data/hotels_by_city/Dallas/Dallas_shard_780.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_780.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,585 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r545377470-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>56567</t>
+  </si>
+  <si>
+    <t>858428</t>
+  </si>
+  <si>
+    <t>545377470</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Stank like animal urine somthing fierce!!!!!! Not what you think it "really is." I will never return nor recommend.</t>
+  </si>
+  <si>
+    <t>The room had such a horrible smell of animal urine, that no matter what you did to try to cover up the stench, you couldn't. They really need to designate certain rooms, or something for people with animals. That or pull all the carpet out of the room and just have stained concrete floors. Also, the laundry room always seems to be out of order as well as the back entrance doors, which are held open by rocks. The safety of this place, "is out the door!" Anyone can come and go. you don't need a key to enter the premises. Also, If you are planning on being her longer than a day, make sure you have EVERYTHING you need to utilize the "kitchenette." I mean EVERYTHING. we had to go purchase, pots &amp; pans, utensils, cups, plates, can opener, trash bags, toilet paper, etc... They supply you with NOTHING except, dingy sheets (yuck) two towels, two washcloths, tub towel for floor, and only 1 roll of toilet paper. It's evident why they are the cheapest extended stay around. I do love the location though. If you want half decent internet, that comes at an additional cost and is not secure.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The room had such a horrible smell of animal urine, that no matter what you did to try to cover up the stench, you couldn't. They really need to designate certain rooms, or something for people with animals. That or pull all the carpet out of the room and just have stained concrete floors. Also, the laundry room always seems to be out of order as well as the back entrance doors, which are held open by rocks. The safety of this place, "is out the door!" Anyone can come and go. you don't need a key to enter the premises. Also, If you are planning on being her longer than a day, make sure you have EVERYTHING you need to utilize the "kitchenette." I mean EVERYTHING. we had to go purchase, pots &amp; pans, utensils, cups, plates, can opener, trash bags, toilet paper, etc... They supply you with NOTHING except, dingy sheets (yuck) two towels, two washcloths, tub towel for floor, and only 1 roll of toilet paper. It's evident why they are the cheapest extended stay around. I do love the location though. If you want half decent internet, that comes at an additional cost and is not secure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r538624368-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>538624368</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Great for extended stay!!</t>
+  </si>
+  <si>
+    <t>We have been staying in this hotel for two  months. We are transitioning from TN to TX. This hotel is clean and comfortable. The staff here has been friendly and professional, going out of their way to make us feel at home. We have had no problems here. We feel safe. This hotel offers everything you could need for an extended stay. The manager, Eva, has always greeted us as well as Vince "the man with the tools"! I would recommend this hotel for anyone!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r530822316-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>530822316</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>very poor</t>
+  </si>
+  <si>
+    <t>terrible experience , front office employee and her friends hanging out next to front door smoking cigarettes upon entry "not a good secure feeling. One of the friends parked 4wd truck in handy cap parking with large decal on back window "FAT HO'S ONLY" OWNER/MGRS need to more involved with property.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r513027962-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>513027962</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>NOT JUST ANOTHER DOLLAR</t>
+  </si>
+  <si>
+    <t>I have had family members that have being staying at this location for well over a year do to resisting circumstances. I have personally seen employees come and go as well as tenants. As with any service oriented business you are going to have foul ups and so on. Things break etc. But in my experience the staff at this location is and has always been adamant about doing what ever they could to accommodate my family there. As some things transitioned, a new manager took the helm (Kim). I thought it was the best that could be gotten from extended stay hotel. But Kim took it to the next level. very professional. yet not stoic and non personal. Its very clear that NO ONE is not just another dollar to her, and that energy reflects in her staff and the guest there as well. Very accommodating and attentive to the needs of guest. Even those who seem mad at the world, Kim and the staff at this Woodsprings continue to smile (authentically) and listen attentively to resolve whatever...WHENEVER. (yes I've seen people lose keys at 3 am). I highly would recommend this location to anyone traveling ... working or needing a place for an unknown amount of time.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I have had family members that have being staying at this location for well over a year do to resisting circumstances. I have personally seen employees come and go as well as tenants. As with any service oriented business you are going to have foul ups and so on. Things break etc. But in my experience the staff at this location is and has always been adamant about doing what ever they could to accommodate my family there. As some things transitioned, a new manager took the helm (Kim). I thought it was the best that could be gotten from extended stay hotel. But Kim took it to the next level. very professional. yet not stoic and non personal. Its very clear that NO ONE is not just another dollar to her, and that energy reflects in her staff and the guest there as well. Very accommodating and attentive to the needs of guest. Even those who seem mad at the world, Kim and the staff at this Woodsprings continue to smile (authentically) and listen attentively to resolve whatever...WHENEVER. (yes I've seen people lose keys at 3 am). I highly would recommend this location to anyone traveling ... working or needing a place for an unknown amount of time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r503674339-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>503674339</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Checked in literally 10 mins ago...</t>
+  </si>
+  <si>
+    <t>We have had this room paid for for a week. Arrived today, great service however upon bringing my kids upstairs to the room, we immediately smelled some god awful smell and then I walked over to the a/c and the whole floor was soaked from the a/c!! 0.o Then my husband realized someone actually went to the lengths of shoving some towels under there. Which tells me, they knew they had an issue and still allowed me to pay $500 with my card and check in. Then the general manager came up and agreed, she then proceeded to say she has two options; she can move us into her room downstairs, or put us into a single bed. How is giving someone their money back peacefully and just admitting this was a huge mistake on their behalf, not an option???! My eyes are burning it smells so awful and I am still having to deal with it until something is figured out. Not that I have ever had this issue, but I couldn't imagine it going much worse. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We have had this room paid for for a week. Arrived today, great service however upon bringing my kids upstairs to the room, we immediately smelled some god awful smell and then I walked over to the a/c and the whole floor was soaked from the a/c!! 0.o Then my husband realized someone actually went to the lengths of shoving some towels under there. Which tells me, they knew they had an issue and still allowed me to pay $500 with my card and check in. Then the general manager came up and agreed, she then proceeded to say she has two options; she can move us into her room downstairs, or put us into a single bed. How is giving someone their money back peacefully and just admitting this was a huge mistake on their behalf, not an option???! My eyes are burning it smells so awful and I am still having to deal with it until something is figured out. Not that I have ever had this issue, but I couldn't imagine it going much worse. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r477748023-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>477748023</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Great Extended Stay in Rockwall TX</t>
+  </si>
+  <si>
+    <t>Over the past couple years I've had the need to stay in an extended stay hotel several times.This is the 3rd time i've stayed at WoodSprings Suites in Rockwall, each stay ranged from 2 to 4 months, and each time was excellent. The management team is friendly and professional. On my current stay I was checked in by Kayla who went above and beyond to make sure i had everything i needed to make my stay enjoyable. This hotel is clean, quiet and meticulously maintained both inside and out, with everything you need to make your stay away from home feel as close to being at home as possible. Thanks to Kimberly and here team, I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Over the past couple years I've had the need to stay in an extended stay hotel several times.This is the 3rd time i've stayed at WoodSprings Suites in Rockwall, each stay ranged from 2 to 4 months, and each time was excellent. The management team is friendly and professional. On my current stay I was checked in by Kayla who went above and beyond to make sure i had everything i needed to make my stay enjoyable. This hotel is clean, quiet and meticulously maintained both inside and out, with everything you need to make your stay away from home feel as close to being at home as possible. Thanks to Kimberly and here team, I will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r465597715-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>465597715</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>I have been here for almost three months. I was hurt on the job and unable to return to work. My stay here has been absolutely fantastic! Miss Kimberely Reeves, manager, sees that she knows each of her guests and is always willing to do what it takes to make your stay here as comfortable as possible. She always makes it a point to handle your concerns in an expeditious manner. The house keeping is amazing as well. Miss Mindy Jarret has always made sure I have everything I need. These two ladies have gone above and beyond their duties to make my stay very comfortable. Would stay here again. Thank you ladies for your excellent work. It is very much appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>I have been here for almost three months. I was hurt on the job and unable to return to work. My stay here has been absolutely fantastic! Miss Kimberely Reeves, manager, sees that she knows each of her guests and is always willing to do what it takes to make your stay here as comfortable as possible. She always makes it a point to handle your concerns in an expeditious manner. The house keeping is amazing as well. Miss Mindy Jarret has always made sure I have everything I need. These two ladies have gone above and beyond their duties to make my stay very comfortable. Would stay here again. Thank you ladies for your excellent work. It is very much appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r458571252-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>458571252</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Very nice and clean</t>
+  </si>
+  <si>
+    <t>I moved to this Hotel in 2014, I didn't have a place to stay so I had to move in before check out time  I called and asked Descinda the general manager was it ok to move in early she explained to me that would be fine so I moved in early that morning in order to be to work by 1p.m. This is a very nice clean place to stay and the staff is awesome.  Kim, the front desk manager and Desicinda the general manager go out of their way to make sure your stay is very comfortable.  I'm still here in 2017 both my jobs are right across the street, this hotel is very convenient for me to get to and from work without a car. I would recommend this hotel to friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I moved to this Hotel in 2014, I didn't have a place to stay so I had to move in before check out time  I called and asked Descinda the general manager was it ok to move in early she explained to me that would be fine so I moved in early that morning in order to be to work by 1p.m. This is a very nice clean place to stay and the staff is awesome.  Kim, the front desk manager and Desicinda the general manager go out of their way to make sure your stay is very comfortable.  I'm still here in 2017 both my jobs are right across the street, this hotel is very convenient for me to get to and from work without a car. I would recommend this hotel to friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r406147167-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>406147167</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>New Girl in town</t>
+  </si>
+  <si>
+    <t>I just moved to Texas from New York in the middle of summer. The climate alone was hard enough without having to deal with the tempetature change. Descinda, the general manager, and Kim, the front desk manager, have gone out of their way to help me get around town. The hotel is very clean, quiet, and the entire staff is affable and accommodating. I will always stay herre when I come back to the Dallas area.Lisa Klimaszewski</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r358463691-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>358463691</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>long term over 2 months fantastic stay</t>
+  </si>
+  <si>
+    <t>well I was displaced by a tornado, and needed a reasonable priced hotel for long term, and this has been a wonderful place, safe, quiet, hassle free, the front office in particular Tiffany has been very helpful, I would have to recommend this location as it has been so much better than I expected, and as I travel on sales business I will be staying at Value Place hotels through out my travels.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r354174391-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>354174391</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Non Smoking Hotel that smelled like smoke</t>
+  </si>
+  <si>
+    <t>Excellent staff, coming in after hours was a little tricky getting checked in, I assumed the hotel was smoking as it smelled like it but was informed it was not.  1 stay stay no other issues other than toilets are super low flow...</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r353420626-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>353420626</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Stayed at Value Place Rockwall for 8 weeks straight while doing a travel assignment for my job. The room was fine, I felt safe being a single woman traveling, it suited my needs so I had no complaints. Having a full size fridge was a plus. Because of the length of my stay, I was able to grocery shop and stock up on things in order to avoid shopping daily. The manager, Decinda was very nice. But Kimberly that worked at the front desk, was absolutely wonderful. Very helpful in every way, including short cuts to get around town, suggestions on where to shop, even asking how I was doing with my job whenever I passed by the front desk. I would stay here again if necessary for work.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Stayed at Value Place Rockwall for 8 weeks straight while doing a travel assignment for my job. The room was fine, I felt safe being a single woman traveling, it suited my needs so I had no complaints. Having a full size fridge was a plus. Because of the length of my stay, I was able to grocery shop and stock up on things in order to avoid shopping daily. The manager, Decinda was very nice. But Kimberly that worked at the front desk, was absolutely wonderful. Very helpful in every way, including short cuts to get around town, suggestions on where to shop, even asking how I was doing with my job whenever I passed by the front desk. I would stay here again if necessary for work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r343678048-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>343678048</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>The room isn't bad, but the front desk staff is!</t>
+  </si>
+  <si>
+    <t>I encourage every single guest that stays at this hotel to view their detailed statement. I have been charged for Internet several times that I didn't select. I had a positive balance on my account, which the front desk refused to acknowledge and when I approached them about it, they completely dismissed me. Even thought I watched her go through the math from my detailed account summary, and her coming up with the same exact numbers I had calculated she just said, "nope you're wrong." The complete lack of professionalism was ASTOUNDING. Attacking me personally because I have a question about my bill! This woman told me she was an accountant, yet every time she did the math on my account she came up with a different number. If your math was so rock solid Pythagorus you wouldn't have gotten a different answer every time! Think about it! If they are doing this to me, I'm sure its happening to others who aren't paying attention to their bill. So I encourage you to do so. I would post my account summary but it will not let me on a review. You can message me directly and Illl share with you. It was really sad actually. All I wanted was some clarification yet both of these ladies said I was wrong because they cannot add. OH and I even talked to TechSupport because in order to renew your internet each week...I encourage every single guest that stays at this hotel to view their detailed statement. I have been charged for Internet several times that I didn't select. I had a positive balance on my account, which the front desk refused to acknowledge and when I approached them about it, they completely dismissed me. Even thought I watched her go through the math from my detailed account summary, and her coming up with the same exact numbers I had calculated she just said, "nope you're wrong." The complete lack of professionalism was ASTOUNDING. Attacking me personally because I have a question about my bill! This woman told me she was an accountant, yet every time she did the math on my account she came up with a different number. If your math was so rock solid Pythagorus you wouldn't have gotten a different answer every time! Think about it! If they are doing this to me, I'm sure its happening to others who aren't paying attention to their bill. So I encourage you to do so. I would post my account summary but it will not let me on a review. You can message me directly and Illl share with you. It was really sad actually. All I wanted was some clarification yet both of these ladies said I was wrong because they cannot add. OH and I even talked to TechSupport because in order to renew your internet each week you have to re-select the speed. But, my laptop wasn't connecting so TechSupport had to connect me manually. I called them and they confirmed I had not selected or technically asked them to connect me to high-speed internet. The guy at tech support was very helpful and he offered to call the front desk. So of course I asked them about this and they basically just called me a liar. So yea.. Enjoy your stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>I encourage every single guest that stays at this hotel to view their detailed statement. I have been charged for Internet several times that I didn't select. I had a positive balance on my account, which the front desk refused to acknowledge and when I approached them about it, they completely dismissed me. Even thought I watched her go through the math from my detailed account summary, and her coming up with the same exact numbers I had calculated she just said, "nope you're wrong." The complete lack of professionalism was ASTOUNDING. Attacking me personally because I have a question about my bill! This woman told me she was an accountant, yet every time she did the math on my account she came up with a different number. If your math was so rock solid Pythagorus you wouldn't have gotten a different answer every time! Think about it! If they are doing this to me, I'm sure its happening to others who aren't paying attention to their bill. So I encourage you to do so. I would post my account summary but it will not let me on a review. You can message me directly and Illl share with you. It was really sad actually. All I wanted was some clarification yet both of these ladies said I was wrong because they cannot add. OH and I even talked to TechSupport because in order to renew your internet each week...I encourage every single guest that stays at this hotel to view their detailed statement. I have been charged for Internet several times that I didn't select. I had a positive balance on my account, which the front desk refused to acknowledge and when I approached them about it, they completely dismissed me. Even thought I watched her go through the math from my detailed account summary, and her coming up with the same exact numbers I had calculated she just said, "nope you're wrong." The complete lack of professionalism was ASTOUNDING. Attacking me personally because I have a question about my bill! This woman told me she was an accountant, yet every time she did the math on my account she came up with a different number. If your math was so rock solid Pythagorus you wouldn't have gotten a different answer every time! Think about it! If they are doing this to me, I'm sure its happening to others who aren't paying attention to their bill. So I encourage you to do so. I would post my account summary but it will not let me on a review. You can message me directly and Illl share with you. It was really sad actually. All I wanted was some clarification yet both of these ladies said I was wrong because they cannot add. OH and I even talked to TechSupport because in order to renew your internet each week you have to re-select the speed. But, my laptop wasn't connecting so TechSupport had to connect me manually. I called them and they confirmed I had not selected or technically asked them to connect me to high-speed internet. The guy at tech support was very helpful and he offered to call the front desk. So of course I asked them about this and they basically just called me a liar. So yea.. Enjoy your stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r330306721-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>330306721</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Long time resident</t>
+  </si>
+  <si>
+    <t>I have lived here four years plus. Shortly after I moved here I started paying four weeks rent at a time, and received a discount. In April 2015 I got news that I had skin cancer on my nose and had it surgically removed. I spent my cash on the surgery and could not pay the four week rent and paid for one week. When I was able to pay another four week rental, I was told they no longer gave residents the four week discount and have been paying rent as if I just checked in every week since! 
+ I moved in paying about $225 a week and now it is $279.99 a week and I have no idea where the extra expense is from. I am a single male and I have received no more amenities than I did when I moved in.  I do not get toilet paper, soap, when my room is cleaned every other week. My bed blanket and bedspread has never been washed until I took it to the office to be exchanged just recently.
+I have talked to many long term residents (over a year) and they tell me the same. That this place is a money pit, and it used to be a place to save for a new beginning. Rumor is there is a couple in this location that does still get a four week discount, management picks who I guess....I have lived here four years plus. Shortly after I moved here I started paying four weeks rent at a time, and received a discount. In April 2015 I got news that I had skin cancer on my nose and had it surgically removed. I spent my cash on the surgery and could not pay the four week rent and paid for one week. When I was able to pay another four week rental, I was told they no longer gave residents the four week discount and have been paying rent as if I just checked in every week since!  I moved in paying about $225 a week and now it is $279.99 a week and I have no idea where the extra expense is from. I am a single male and I have received no more amenities than I did when I moved in.  I do not get toilet paper, soap, when my room is cleaned every other week. My bed blanket and bedspread has never been washed until I took it to the office to be exchanged just recently.I have talked to many long term residents (over a year) and they tell me the same. That this place is a money pit, and it used to be a place to save for a new beginning. Rumor is there is a couple in this location that does still get a four week discount, management picks who I guess. Recently this location changed to accept nightly stays and I know must be much more profitable, I do not know why the long term residents must suffer when this location has to be making more profit then ever before.I did contact customer service via e-mail but never got a response not even an acknowledgement or thank you for contacting us.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I have lived here four years plus. Shortly after I moved here I started paying four weeks rent at a time, and received a discount. In April 2015 I got news that I had skin cancer on my nose and had it surgically removed. I spent my cash on the surgery and could not pay the four week rent and paid for one week. When I was able to pay another four week rental, I was told they no longer gave residents the four week discount and have been paying rent as if I just checked in every week since! 
+ I moved in paying about $225 a week and now it is $279.99 a week and I have no idea where the extra expense is from. I am a single male and I have received no more amenities than I did when I moved in.  I do not get toilet paper, soap, when my room is cleaned every other week. My bed blanket and bedspread has never been washed until I took it to the office to be exchanged just recently.
+I have talked to many long term residents (over a year) and they tell me the same. That this place is a money pit, and it used to be a place to save for a new beginning. Rumor is there is a couple in this location that does still get a four week discount, management picks who I guess....I have lived here four years plus. Shortly after I moved here I started paying four weeks rent at a time, and received a discount. In April 2015 I got news that I had skin cancer on my nose and had it surgically removed. I spent my cash on the surgery and could not pay the four week rent and paid for one week. When I was able to pay another four week rental, I was told they no longer gave residents the four week discount and have been paying rent as if I just checked in every week since!  I moved in paying about $225 a week and now it is $279.99 a week and I have no idea where the extra expense is from. I am a single male and I have received no more amenities than I did when I moved in.  I do not get toilet paper, soap, when my room is cleaned every other week. My bed blanket and bedspread has never been washed until I took it to the office to be exchanged just recently.I have talked to many long term residents (over a year) and they tell me the same. That this place is a money pit, and it used to be a place to save for a new beginning. Rumor is there is a couple in this location that does still get a four week discount, management picks who I guess. Recently this location changed to accept nightly stays and I know must be much more profitable, I do not know why the long term residents must suffer when this location has to be making more profit then ever before.I did contact customer service via e-mail but never got a response not even an acknowledgement or thank you for contacting us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r308088424-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>308088424</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Great Family living</t>
+  </si>
+  <si>
+    <t>My family and I stay at the Rockwall. Texas location.  The staff are very attentive to the needs of the customers.  The manager and office staff are very kind to the customers.  If there is a need and the Decinda Sarratt is an amazing manager.  We had a situation with billing and she gave great customer service.  My family has stayed at different locations, but this location is great.  Mrs. Kim always greets the customers with a smile and assist when she can.  The room is kept clean.  Service is great.  Will return for another stay. I recommend this hotel if you need a few weeks of home living and good people to be around.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>My family and I stay at the Rockwall. Texas location.  The staff are very attentive to the needs of the customers.  The manager and office staff are very kind to the customers.  If there is a need and the Decinda Sarratt is an amazing manager.  We had a situation with billing and she gave great customer service.  My family has stayed at different locations, but this location is great.  Mrs. Kim always greets the customers with a smile and assist when she can.  The room is kept clean.  Service is great.  Will return for another stay. I recommend this hotel if you need a few weeks of home living and good people to be around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r285405063-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>285405063</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Not for everybody</t>
+  </si>
+  <si>
+    <t>Had a week long stay booked here as our first experience at Value Place. The price is good for an extended stay but the concept was not a good fit for our family. More than two towels = extra charge. Pots and pans = extra charge. Lots of basic items one would think would be included like cleaning the room and changing out the two towels cost extra. Probably to be expected based on the price point but not a fan of this setup. We booked a two bed suite for our family of five and the full size beds were not comfortable to sleep two people. Odd, map smell and the cramped room led us to check out two days early (no money was refunded) and try another hotel in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Had a week long stay booked here as our first experience at Value Place. The price is good for an extended stay but the concept was not a good fit for our family. More than two towels = extra charge. Pots and pans = extra charge. Lots of basic items one would think would be included like cleaning the room and changing out the two towels cost extra. Probably to be expected based on the price point but not a fan of this setup. We booked a two bed suite for our family of five and the full size beds were not comfortable to sleep two people. Odd, map smell and the cramped room led us to check out two days early (no money was refunded) and try another hotel in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r263525338-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>263525338</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Nice secure, functional and comfortable place to stay. I would surely recommend to someone else.  Location was ideal. Bed clean and comfortable. Inside card access and outside fencing made security a non-issue.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r246443935-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>246443935</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Basic accommodations but great stay!</t>
+  </si>
+  <si>
+    <t>If you're looking for something fancy, this is not your place.  There were two double beds (not queen) in our room.  Everything was very clean and neat.  Everything worked great.  Wasn't sure if I would feel safe here, but I felt quite safe for the whole family.  Very quiet and peaceful.  Room only comes with two towels.  Be sure to ask for more if you need them when you check in.  Staff was friendly and helpful.  When you reserve a room on their website, the basic rate states that it includes taxes and fees.  It does NOT include taxes and fees.  They will be added in.  Even so, it's a great value if you need to stay a week here.  I will stay here again when we're in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Sean A, Owner at WoodSpring Suites Dallas Rockwall, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>If you're looking for something fancy, this is not your place.  There were two double beds (not queen) in our room.  Everything was very clean and neat.  Everything worked great.  Wasn't sure if I would feel safe here, but I felt quite safe for the whole family.  Very quiet and peaceful.  Room only comes with two towels.  Be sure to ask for more if you need them when you check in.  Staff was friendly and helpful.  When you reserve a room on their website, the basic rate states that it includes taxes and fees.  It does NOT include taxes and fees.  They will be added in.  Even so, it's a great value if you need to stay a week here.  I will stay here again when we're in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r165383805-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>165383805</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>Worth the price</t>
+  </si>
+  <si>
+    <t>This our first stay at a Value Place.  We were treated very well and the afternoon and evening attendant were very accommodating .  We were traveling with my 93 year old mom and everyone went out of there way to help us get settled in.  The room was very clean and comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r146572141-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>146572141</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>Beware of travelers</t>
+  </si>
+  <si>
+    <t>After getting into our room I noticed caked on dirt in the microvave that did not even work, and stove top burners with caked on grease . The tub was disgusting with a back ring around it. The bedspread's spelled like urine. The real kicker was that they only clean the rooms once every 2 weeks when you stay there. If you want clean lenens or your room cleaned more often then 2 weeks - you pay extra for each. when I called the front desk to tell them, I was told by the manager that Maybe I should find another  hotel to stay. My husband called the corp office of Value place and they had the manager and housekeeper come clean the room, and replace the broken ice trays,Microwave that were in the freezer. After the week was almost up the manager told me to find another hotel as she was upset that I would call the corperate office and tell them of the discusting room. Corp Office was nice but that woman that calls herself hotel manager needs to take a class on cleanliness - let her stay in that nasty room. We travel alot, and would never stay there again. The beds are on a wood slab  with springs poking you on both beds. I have stayed in other Value places in other states, and never had a problem. This one in Rockwall,TX was really bad!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>After getting into our room I noticed caked on dirt in the microvave that did not even work, and stove top burners with caked on grease . The tub was disgusting with a back ring around it. The bedspread's spelled like urine. The real kicker was that they only clean the rooms once every 2 weeks when you stay there. If you want clean lenens or your room cleaned more often then 2 weeks - you pay extra for each. when I called the front desk to tell them, I was told by the manager that Maybe I should find another  hotel to stay. My husband called the corp office of Value place and they had the manager and housekeeper come clean the room, and replace the broken ice trays,Microwave that were in the freezer. After the week was almost up the manager told me to find another hotel as she was upset that I would call the corperate office and tell them of the discusting room. Corp Office was nice but that woman that calls herself hotel manager needs to take a class on cleanliness - let her stay in that nasty room. We travel alot, and would never stay there again. The beds are on a wood slab  with springs poking you on both beds. I have stayed in other Value places in other states, and never had a problem. This one in Rockwall,TX was really bad!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r130580244-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>130580244</t>
+  </si>
+  <si>
+    <t>05/25/2012</t>
+  </si>
+  <si>
+    <t>Raising the rates again</t>
+  </si>
+  <si>
+    <t>This is the second time during my stay that VP has raised the rates.  The notice indicated I would agree that with the rate increase, it was still a great value.  Well, unfortunately, I quite disagree.  This rate increase came with no improvements to the rooms or the property.  The only change is a kiyosk that continuously loops to show the rooms with bedspreads that have not been update since the opening.  Shower curtains that you have to change when they get worn.  Night before notices for pest control or a/c cleaning.  Grounds that continuously have beer cans and other alcoholic beverage containers in the parking lot.  I can only hope the staff will see some of this rate increase as Tim, Dacinda and Ross are great.  The service staff is also very friendly although I don't know their names.  I have a feeling the rate is paying for the kiosk when they should have considered updating their computer system which always manages to crash when you need to renew.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>This is the second time during my stay that VP has raised the rates.  The notice indicated I would agree that with the rate increase, it was still a great value.  Well, unfortunately, I quite disagree.  This rate increase came with no improvements to the rooms or the property.  The only change is a kiyosk that continuously loops to show the rooms with bedspreads that have not been update since the opening.  Shower curtains that you have to change when they get worn.  Night before notices for pest control or a/c cleaning.  Grounds that continuously have beer cans and other alcoholic beverage containers in the parking lot.  I can only hope the staff will see some of this rate increase as Tim, Dacinda and Ross are great.  The service staff is also very friendly although I don't know their names.  I have a feeling the rate is paying for the kiosk when they should have considered updating their computer system which always manages to crash when you need to renew.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r120260490-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>120260490</t>
+  </si>
+  <si>
+    <t>11/07/2011</t>
+  </si>
+  <si>
+    <t>Worst Week Ever</t>
+  </si>
+  <si>
+    <t>I stayed here in mid october and let me tell you! The worst hotel i have ever been too. The bald headed desk guy creeps me out to. He would walk around outside at 1 in the morning and i saw him shining a flashlight into windows....kind of wierd...not to mention how doped up he looked. ROACHES EVERYWHERE! the stove top was convenient though. Lots of wierd people live here. Most looked like pedophiles...i'd rather hit up a motel 8 next time. Good travels!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Dallas Rockwall, responded to this reviewResponded November 10, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2011</t>
+  </si>
+  <si>
+    <t>I stayed here in mid october and let me tell you! The worst hotel i have ever been too. The bald headed desk guy creeps me out to. He would walk around outside at 1 in the morning and i saw him shining a flashlight into windows....kind of wierd...not to mention how doped up he looked. ROACHES EVERYWHERE! the stove top was convenient though. Lots of wierd people live here. Most looked like pedophiles...i'd rather hit up a motel 8 next time. Good travels!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r119442404-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>119442404</t>
+  </si>
+  <si>
+    <t>10/18/2011</t>
+  </si>
+  <si>
+    <t>Best Extended Stay</t>
+  </si>
+  <si>
+    <t>I travel throughout the US with my job staying anywhere from 2 weeks to a year at any given spot I have found the Value Place in Rockwall to be Great. Staff is excellent, Generally quiet, and for those that have complained about the cooking smells Get over it I quess you microwave everything. Only Issue is the slow elevator but it is the same at every Value Place.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Dallas Rockwall, responded to this reviewResponded October 20, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2011</t>
+  </si>
+  <si>
+    <t>I travel throughout the US with my job staying anywhere from 2 weeks to a year at any given spot I have found the Value Place in Rockwall to be Great. Staff is excellent, Generally quiet, and for those that have complained about the cooking smells Get over it I quess you microwave everything. Only Issue is the slow elevator but it is the same at every Value Place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r119003475-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>119003475</t>
+  </si>
+  <si>
+    <t>10/06/2011</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>This has been a second "home" for me several times, and I would not hesitate to stay here again.  The desk clerks are all very helpful, friendly, and down to earth.  The room service has been superb, as has the maintenance.  Those who have complaints need to remember that this is not a personal property.  Of course there will be noises, smells, etc. (as someone complained about).  It's a multi-unit facility with all types of tenants.  I consider that a reflection of the individual, not the property.  The solution is to get your own personal place, or stop being so easily irritated.  Sure, there's a few bugs; that's anywhere.  I had the opportunity to do a few home-cooked meals myself, and it was awesome!  I haven't had hot water cornbread in a very long time, but was able to do it here.  This will be my place of choice for all extended visits to the area.  Thanks, everybody, for a fantastic stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Dallas Rockwall, responded to this reviewResponded October 10, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2011</t>
+  </si>
+  <si>
+    <t>This has been a second "home" for me several times, and I would not hesitate to stay here again.  The desk clerks are all very helpful, friendly, and down to earth.  The room service has been superb, as has the maintenance.  Those who have complaints need to remember that this is not a personal property.  Of course there will be noises, smells, etc. (as someone complained about).  It's a multi-unit facility with all types of tenants.  I consider that a reflection of the individual, not the property.  The solution is to get your own personal place, or stop being so easily irritated.  Sure, there's a few bugs; that's anywhere.  I had the opportunity to do a few home-cooked meals myself, and it was awesome!  I haven't had hot water cornbread in a very long time, but was able to do it here.  This will be my place of choice for all extended visits to the area.  Thanks, everybody, for a fantastic stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r101946078-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>101946078</t>
+  </si>
+  <si>
+    <t>03/28/2011</t>
+  </si>
+  <si>
+    <t>There's an old saying "You get what you pay for"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I decided to try this hotel based on the TA reviews. What a mistake. If you ever want to know what it's like to live with homeless people, stay at this hotel. The hallways smelled of cooking food, in a bad way. It sounded like 10 people were living in the room next door. Kids and babies crying. There was a dead cockroach in the stairwell. Also, the wall in my room had a big splatter mark which looked like someone killed a cockroach on the wall. There were people yelling in the parking lot at night. The laundry room looked dirty. Never again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r80956949-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>80956949</t>
+  </si>
+  <si>
+    <t>09/25/2010</t>
+  </si>
+  <si>
+    <t>Great place to stay - will be back, that is if we ever leave.</t>
+  </si>
+  <si>
+    <t>Your review 
+ Visiting family - extended stay‎ - ‎ - Today
+Location is great. Conveniently right off of I-30 but not too noisy. Wal-mart is close - less than 1 mile on service road. Lots of restaurants and shopping within walking distance or a short drive. Plenty of lighted parking. Don't be fooled by other reviews . . . when you first see hotel, there doesn't seem to be much parking, but the hotel owns all of the parking spaces behind the Honda dealership. We had a trailer, scooter, and a full size truck. We used three parking spaces with no problems. Room is clean and smells good. We stayed on 2nd floor. 1st through 3rd floors are non-smoking. All smokers are on 4th floor. We weren't happy with the first room we were assigned. The room was adjacent to the electrical room and the elevator. Light sleepers and constant hum was annoying. Upon notifying manager, we were offered another room immediately. 
+Pros: Extremely low rates, great value for the dollar, Staff - especially Descinda, are very courteous and go out of their way to make sure that your stay is comfortable, room is fairly large, nice kitchen area, full size refrigerator, air conditioning cools wonderfully, comfortable beds with ingenious underbed storage, weekly room cleaning included in rate, interior and exterior of hotel are very well maintained, Wireless internet available for a small weekly fee, 
+Cons: No front door canopy...Your review  Visiting family - extended stay‎ - ‎ - TodayLocation is great. Conveniently right off of I-30 but not too noisy. Wal-mart is close - less than 1 mile on service road. Lots of restaurants and shopping within walking distance or a short drive. Plenty of lighted parking. Don't be fooled by other reviews . . . when you first see hotel, there doesn't seem to be much parking, but the hotel owns all of the parking spaces behind the Honda dealership. We had a trailer, scooter, and a full size truck. We used three parking spaces with no problems. Room is clean and smells good. We stayed on 2nd floor. 1st through 3rd floors are non-smoking. All smokers are on 4th floor. We weren't happy with the first room we were assigned. The room was adjacent to the electrical room and the elevator. Light sleepers and constant hum was annoying. Upon notifying manager, we were offered another room immediately. Pros: Extremely low rates, great value for the dollar, Staff - especially Descinda, are very courteous and go out of their way to make sure that your stay is comfortable, room is fairly large, nice kitchen area, full size refrigerator, air conditioning cools wonderfully, comfortable beds with ingenious underbed storage, weekly room cleaning included in rate, interior and exterior of hotel are very well maintained, Wireless internet available for a small weekly fee, Cons: No front door canopy to cover from weather when loading or unloading, no views out of windows, no ice machines, smoke smell when entering building and elevator (however there is no smoke smell in room or hall), hotel only offers full size beds - only two floors plans available - 1 full size bed with sofa sleeper, or 2 full size beds with no sofa sleeper. For a couple, a perfect room would have been a queen size bed with a sofa, kitchen has stove top only - oven would have been nice. No black-out curtains for single window in room. Was able to drape blanket over window. I would have rated this hotel 5 stars if not for the few minor cons. We've extended our stay for another week, if that tells you anything. I wish there were more Value Place hotels available in our travels. Truly a great value. I would definitely recommend to a friend.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>Your review 
+ Visiting family - extended stay‎ - ‎ - Today
+Location is great. Conveniently right off of I-30 but not too noisy. Wal-mart is close - less than 1 mile on service road. Lots of restaurants and shopping within walking distance or a short drive. Plenty of lighted parking. Don't be fooled by other reviews . . . when you first see hotel, there doesn't seem to be much parking, but the hotel owns all of the parking spaces behind the Honda dealership. We had a trailer, scooter, and a full size truck. We used three parking spaces with no problems. Room is clean and smells good. We stayed on 2nd floor. 1st through 3rd floors are non-smoking. All smokers are on 4th floor. We weren't happy with the first room we were assigned. The room was adjacent to the electrical room and the elevator. Light sleepers and constant hum was annoying. Upon notifying manager, we were offered another room immediately. 
+Pros: Extremely low rates, great value for the dollar, Staff - especially Descinda, are very courteous and go out of their way to make sure that your stay is comfortable, room is fairly large, nice kitchen area, full size refrigerator, air conditioning cools wonderfully, comfortable beds with ingenious underbed storage, weekly room cleaning included in rate, interior and exterior of hotel are very well maintained, Wireless internet available for a small weekly fee, 
+Cons: No front door canopy...Your review  Visiting family - extended stay‎ - ‎ - TodayLocation is great. Conveniently right off of I-30 but not too noisy. Wal-mart is close - less than 1 mile on service road. Lots of restaurants and shopping within walking distance or a short drive. Plenty of lighted parking. Don't be fooled by other reviews . . . when you first see hotel, there doesn't seem to be much parking, but the hotel owns all of the parking spaces behind the Honda dealership. We had a trailer, scooter, and a full size truck. We used three parking spaces with no problems. Room is clean and smells good. We stayed on 2nd floor. 1st through 3rd floors are non-smoking. All smokers are on 4th floor. We weren't happy with the first room we were assigned. The room was adjacent to the electrical room and the elevator. Light sleepers and constant hum was annoying. Upon notifying manager, we were offered another room immediately. Pros: Extremely low rates, great value for the dollar, Staff - especially Descinda, are very courteous and go out of their way to make sure that your stay is comfortable, room is fairly large, nice kitchen area, full size refrigerator, air conditioning cools wonderfully, comfortable beds with ingenious underbed storage, weekly room cleaning included in rate, interior and exterior of hotel are very well maintained, Wireless internet available for a small weekly fee, Cons: No front door canopy to cover from weather when loading or unloading, no views out of windows, no ice machines, smoke smell when entering building and elevator (however there is no smoke smell in room or hall), hotel only offers full size beds - only two floors plans available - 1 full size bed with sofa sleeper, or 2 full size beds with no sofa sleeper. For a couple, a perfect room would have been a queen size bed with a sofa, kitchen has stove top only - oven would have been nice. No black-out curtains for single window in room. Was able to drape blanket over window. I would have rated this hotel 5 stars if not for the few minor cons. We've extended our stay for another week, if that tells you anything. I wish there were more Value Place hotels available in our travels. Truly a great value. I would definitely recommend to a friend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r30434741-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>30434741</t>
+  </si>
+  <si>
+    <t>05/21/2009</t>
+  </si>
+  <si>
+    <t>ok, but has some problems</t>
+  </si>
+  <si>
+    <t>Good:  location for me, in a safe part of smaller suburb, cops seem to be around and thats good, newer building, was fairly clean except for motel smellBad:  22 miles from downtown dallas, motorcycle shop runs loud bikes allday long on west side, no naps...no curtains, sun shine problem, Never everstay over 7 days, they charge $52/day for staying past 7...that needs to bechanged big time....$100 deposit is sorta large but got it back ok.No wifi unless you pay a seperate company, who does this anymore???very small tv only a 17 or 19, hard to see from bed and only 1 chairwould I stay again, probably, because of location</t>
+  </si>
+  <si>
+    <t>April 2009</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1224,1731 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>194</v>
+      </c>
+      <c r="X23" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>203</v>
+      </c>
+      <c r="X24" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O25" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>211</v>
+      </c>
+      <c r="X25" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>224</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>231</v>
+      </c>
+      <c r="O28" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_780.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_780.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>verydisappointed101</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>The room had such a horrible smell of animal urine, that no matter what you did to try to cover up the stench, you couldn't. They really need to designate certain rooms, or something for people with animals. That or pull all the carpet out of the room and just have stained concrete floors. Also, the laundry room always seems to be out of order as well as the back entrance doors, which are held open by rocks. The safety of this place, "is out the door!" Anyone can come and go. you don't need a key to enter the premises. Also, If you are planning on being her longer than a day, make sure you have EVERYTHING you need to utilize the "kitchenette." I mean EVERYTHING. we had to go purchase, pots &amp; pans, utensils, cups, plates, can opener, trash bags, toilet paper, etc... They supply you with NOTHING except, dingy sheets (yuck) two towels, two washcloths, tub towel for floor, and only 1 roll of toilet paper. It's evident why they are the cheapest extended stay around. I do love the location though. If you want half decent internet, that comes at an additional cost and is not secure.More</t>
   </si>
   <si>
+    <t>Tanja P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r538624368-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>jto65442</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r530822316-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>overtonequitygroup</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r513027962-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>I have had family members that have being staying at this location for well over a year do to resisting circumstances. I have personally seen employees come and go as well as tenants. As with any service oriented business you are going to have foul ups and so on. Things break etc. But in my experience the staff at this location is and has always been adamant about doing what ever they could to accommodate my family there. As some things transitioned, a new manager took the helm (Kim). I thought it was the best that could be gotten from extended stay hotel. But Kim took it to the next level. very professional. yet not stoic and non personal. Its very clear that NO ONE is not just another dollar to her, and that energy reflects in her staff and the guest there as well. Very accommodating and attentive to the needs of guest. Even those who seem mad at the world, Kim and the staff at this Woodsprings continue to smile (authentically) and listen attentively to resolve whatever...WHENEVER. (yes I've seen people lose keys at 3 am). I highly would recommend this location to anyone traveling ... working or needing a place for an unknown amount of time.More</t>
   </si>
   <si>
+    <t>hotelfoster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r503674339-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>We have had this room paid for for a week. Arrived today, great service however upon bringing my kids upstairs to the room, we immediately smelled some god awful smell and then I walked over to the a/c and the whole floor was soaked from the a/c!! 0.o Then my husband realized someone actually went to the lengths of shoving some towels under there. Which tells me, they knew they had an issue and still allowed me to pay $500 with my card and check in. Then the general manager came up and agreed, she then proceeded to say she has two options; she can move us into her room downstairs, or put us into a single bed. How is giving someone their money back peacefully and just admitting this was a huge mistake on their behalf, not an option???! My eyes are burning it smells so awful and I am still having to deal with it until something is figured out. Not that I have ever had this issue, but I couldn't imagine it going much worse. More</t>
   </si>
   <si>
+    <t>Mark B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r477748023-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>Over the past couple years I've had the need to stay in an extended stay hotel several times.This is the 3rd time i've stayed at WoodSprings Suites in Rockwall, each stay ranged from 2 to 4 months, and each time was excellent. The management team is friendly and professional. On my current stay I was checked in by Kayla who went above and beyond to make sure i had everything i needed to make my stay enjoyable. This hotel is clean, quiet and meticulously maintained both inside and out, with everything you need to make your stay away from home feel as close to being at home as possible. Thanks to Kimberly and here team, I will be back.More</t>
   </si>
   <si>
+    <t>lonestarlady1170</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r465597715-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>I have been here for almost three months. I was hurt on the job and unable to return to work. My stay here has been absolutely fantastic! Miss Kimberely Reeves, manager, sees that she knows each of her guests and is always willing to do what it takes to make your stay here as comfortable as possible. She always makes it a point to handle your concerns in an expeditious manner. The house keeping is amazing as well. Miss Mindy Jarret has always made sure I have everything I need. These two ladies have gone above and beyond their duties to make my stay very comfortable. Would stay here again. Thank you ladies for your excellent work. It is very much appreciated.More</t>
   </si>
   <si>
+    <t>DeDe D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r458571252-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>I moved to this Hotel in 2014, I didn't have a place to stay so I had to move in before check out time  I called and asked Descinda the general manager was it ok to move in early she explained to me that would be fine so I moved in early that morning in order to be to work by 1p.m. This is a very nice clean place to stay and the staff is awesome.  Kim, the front desk manager and Desicinda the general manager go out of their way to make sure your stay is very comfortable.  I'm still here in 2017 both my jobs are right across the street, this hotel is very convenient for me to get to and from work without a car. I would recommend this hotel to friends and family.More</t>
   </si>
   <si>
+    <t>Lisa K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r406147167-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>mmurphy530</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r358463691-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>alancwray</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r354174391-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Dawn R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r353420626-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>Stayed at Value Place Rockwall for 8 weeks straight while doing a travel assignment for my job. The room was fine, I felt safe being a single woman traveling, it suited my needs so I had no complaints. Having a full size fridge was a plus. Because of the length of my stay, I was able to grocery shop and stock up on things in order to avoid shopping daily. The manager, Decinda was very nice. But Kimberly that worked at the front desk, was absolutely wonderful. Very helpful in every way, including short cuts to get around town, suggestions on where to shop, even asking how I was doing with my job whenever I passed by the front desk. I would stay here again if necessary for work.More</t>
   </si>
   <si>
+    <t>Nick L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r343678048-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -415,6 +454,9 @@
   </si>
   <si>
     <t>I encourage every single guest that stays at this hotel to view their detailed statement. I have been charged for Internet several times that I didn't select. I had a positive balance on my account, which the front desk refused to acknowledge and when I approached them about it, they completely dismissed me. Even thought I watched her go through the math from my detailed account summary, and her coming up with the same exact numbers I had calculated she just said, "nope you're wrong." The complete lack of professionalism was ASTOUNDING. Attacking me personally because I have a question about my bill! This woman told me she was an accountant, yet every time she did the math on my account she came up with a different number. If your math was so rock solid Pythagorus you wouldn't have gotten a different answer every time! Think about it! If they are doing this to me, I'm sure its happening to others who aren't paying attention to their bill. So I encourage you to do so. I would post my account summary but it will not let me on a review. You can message me directly and Illl share with you. It was really sad actually. All I wanted was some clarification yet both of these ladies said I was wrong because they cannot add. OH and I even talked to TechSupport because in order to renew your internet each week...I encourage every single guest that stays at this hotel to view their detailed statement. I have been charged for Internet several times that I didn't select. I had a positive balance on my account, which the front desk refused to acknowledge and when I approached them about it, they completely dismissed me. Even thought I watched her go through the math from my detailed account summary, and her coming up with the same exact numbers I had calculated she just said, "nope you're wrong." The complete lack of professionalism was ASTOUNDING. Attacking me personally because I have a question about my bill! This woman told me she was an accountant, yet every time she did the math on my account she came up with a different number. If your math was so rock solid Pythagorus you wouldn't have gotten a different answer every time! Think about it! If they are doing this to me, I'm sure its happening to others who aren't paying attention to their bill. So I encourage you to do so. I would post my account summary but it will not let me on a review. You can message me directly and Illl share with you. It was really sad actually. All I wanted was some clarification yet both of these ladies said I was wrong because they cannot add. OH and I even talked to TechSupport because in order to renew your internet each week you have to re-select the speed. But, my laptop wasn't connecting so TechSupport had to connect me manually. I called them and they confirmed I had not selected or technically asked them to connect me to high-speed internet. The guy at tech support was very helpful and he offered to call the front desk. So of course I asked them about this and they basically just called me a liar. So yea.. Enjoy your stay!More</t>
+  </si>
+  <si>
+    <t>Jim B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r330306721-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -442,6 +484,9 @@
 I have talked to many long term residents (over a year) and they tell me the same. That this place is a money pit, and it used to be a place to save for a new beginning. Rumor is there is a couple in this location that does still get a four week discount, management picks who I guess....I have lived here four years plus. Shortly after I moved here I started paying four weeks rent at a time, and received a discount. In April 2015 I got news that I had skin cancer on my nose and had it surgically removed. I spent my cash on the surgery and could not pay the four week rent and paid for one week. When I was able to pay another four week rental, I was told they no longer gave residents the four week discount and have been paying rent as if I just checked in every week since!  I moved in paying about $225 a week and now it is $279.99 a week and I have no idea where the extra expense is from. I am a single male and I have received no more amenities than I did when I moved in.  I do not get toilet paper, soap, when my room is cleaned every other week. My bed blanket and bedspread has never been washed until I took it to the office to be exchanged just recently.I have talked to many long term residents (over a year) and they tell me the same. That this place is a money pit, and it used to be a place to save for a new beginning. Rumor is there is a couple in this location that does still get a four week discount, management picks who I guess. Recently this location changed to accept nightly stays and I know must be much more profitable, I do not know why the long term residents must suffer when this location has to be making more profit then ever before.I did contact customer service via e-mail but never got a response not even an acknowledgement or thank you for contacting us.More</t>
   </si>
   <si>
+    <t>883ashleyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r308088424-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -463,6 +508,9 @@
     <t>My family and I stay at the Rockwall. Texas location.  The staff are very attentive to the needs of the customers.  The manager and office staff are very kind to the customers.  If there is a need and the Decinda Sarratt is an amazing manager.  We had a situation with billing and she gave great customer service.  My family has stayed at different locations, but this location is great.  Mrs. Kim always greets the customers with a smile and assist when she can.  The room is kept clean.  Service is great.  Will return for another stay. I recommend this hotel if you need a few weeks of home living and good people to be around.More</t>
   </si>
   <si>
+    <t>bobcatbill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r285405063-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -484,6 +532,9 @@
     <t>Had a week long stay booked here as our first experience at Value Place. The price is good for an extended stay but the concept was not a good fit for our family. More than two towels = extra charge. Pots and pans = extra charge. Lots of basic items one would think would be included like cleaning the room and changing out the two towels cost extra. Probably to be expected based on the price point but not a fan of this setup. We booked a two bed suite for our family of five and the full size beds were not comfortable to sleep two people. Odd, map smell and the cramped room led us to check out two days early (no money was refunded) and try another hotel in the area.More</t>
   </si>
   <si>
+    <t>Paul H B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r263525338-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -502,6 +553,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>IL_Adventurer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r246443935-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -529,6 +583,9 @@
     <t>If you're looking for something fancy, this is not your place.  There were two double beds (not queen) in our room.  Everything was very clean and neat.  Everything worked great.  Wasn't sure if I would feel safe here, but I felt quite safe for the whole family.  Very quiet and peaceful.  Room only comes with two towels.  Be sure to ask for more if you need them when you check in.  Staff was friendly and helpful.  When you reserve a room on their website, the basic rate states that it includes taxes and fees.  It does NOT include taxes and fees.  They will be added in.  Even so, it's a great value if you need to stay a week here.  I will stay here again when we're in town.More</t>
   </si>
   <si>
+    <t>Clarkgal1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r165383805-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -544,6 +601,9 @@
     <t>This our first stay at a Value Place.  We were treated very well and the afternoon and evening attendant were very accommodating .  We were traveling with my 93 year old mom and everyone went out of there way to help us get settled in.  The room was very clean and comfortable.</t>
   </si>
   <si>
+    <t>LinnieInPensacola</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r146572141-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -565,6 +625,9 @@
     <t>After getting into our room I noticed caked on dirt in the microvave that did not even work, and stove top burners with caked on grease . The tub was disgusting with a back ring around it. The bedspread's spelled like urine. The real kicker was that they only clean the rooms once every 2 weeks when you stay there. If you want clean lenens or your room cleaned more often then 2 weeks - you pay extra for each. when I called the front desk to tell them, I was told by the manager that Maybe I should find another  hotel to stay. My husband called the corp office of Value place and they had the manager and housekeeper come clean the room, and replace the broken ice trays,Microwave that were in the freezer. After the week was almost up the manager told me to find another hotel as she was upset that I would call the corperate office and tell them of the discusting room. Corp Office was nice but that woman that calls herself hotel manager needs to take a class on cleanliness - let her stay in that nasty room. We travel alot, and would never stay there again. The beds are on a wood slab  with springs poking you on both beds. I have stayed in other Value places in other states, and never had a problem. This one in Rockwall,TX was really bad!!!More</t>
   </si>
   <si>
+    <t>CL A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r130580244-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -586,6 +649,9 @@
     <t>This is the second time during my stay that VP has raised the rates.  The notice indicated I would agree that with the rate increase, it was still a great value.  Well, unfortunately, I quite disagree.  This rate increase came with no improvements to the rooms or the property.  The only change is a kiyosk that continuously loops to show the rooms with bedspreads that have not been update since the opening.  Shower curtains that you have to change when they get worn.  Night before notices for pest control or a/c cleaning.  Grounds that continuously have beer cans and other alcoholic beverage containers in the parking lot.  I can only hope the staff will see some of this rate increase as Tim, Dacinda and Ross are great.  The service staff is also very friendly although I don't know their names.  I have a feeling the rate is paying for the kiosk when they should have considered updating their computer system which always manages to crash when you need to renew.More</t>
   </si>
   <si>
+    <t>ryan t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r120260490-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -613,6 +679,9 @@
     <t>I stayed here in mid october and let me tell you! The worst hotel i have ever been too. The bald headed desk guy creeps me out to. He would walk around outside at 1 in the morning and i saw him shining a flashlight into windows....kind of wierd...not to mention how doped up he looked. ROACHES EVERYWHERE! the stove top was convenient though. Lots of wierd people live here. Most looked like pedophiles...i'd rather hit up a motel 8 next time. Good travels!!!More</t>
   </si>
   <si>
+    <t>scaffold</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r119442404-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -640,6 +709,9 @@
     <t>I travel throughout the US with my job staying anywhere from 2 weeks to a year at any given spot I have found the Value Place in Rockwall to be Great. Staff is excellent, Generally quiet, and for those that have complained about the cooking smells Get over it I quess you microwave everything. Only Issue is the slow elevator but it is the same at every Value Place.More</t>
   </si>
   <si>
+    <t>JBJ315</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r119003475-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -664,6 +736,9 @@
     <t>This has been a second "home" for me several times, and I would not hesitate to stay here again.  The desk clerks are all very helpful, friendly, and down to earth.  The room service has been superb, as has the maintenance.  Those who have complaints need to remember that this is not a personal property.  Of course there will be noises, smells, etc. (as someone complained about).  It's a multi-unit facility with all types of tenants.  I consider that a reflection of the individual, not the property.  The solution is to get your own personal place, or stop being so easily irritated.  Sure, there's a few bugs; that's anywhere.  I had the opportunity to do a few home-cooked meals myself, and it was awesome!  I haven't had hot water cornbread in a very long time, but was able to do it here.  This will be my place of choice for all extended visits to the area.  Thanks, everybody, for a fantastic stay!More</t>
   </si>
   <si>
+    <t>Giampda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r101946078-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -677,6 +752,9 @@
   </si>
   <si>
     <t xml:space="preserve">I decided to try this hotel based on the TA reviews. What a mistake. If you ever want to know what it's like to live with homeless people, stay at this hotel. The hallways smelled of cooking food, in a bad way. It sounded like 10 people were living in the room next door. Kids and babies crying. There was a dead cockroach in the stairwell. Also, the wall in my room had a big splatter mark which looked like someone killed a cockroach on the wall. There were people yelling in the parking lot at night. The laundry room looked dirty. Never again. </t>
+  </si>
+  <si>
+    <t>travelingreviewers58</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r80956949-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -706,6 +784,9 @@
 Location is great. Conveniently right off of I-30 but not too noisy. Wal-mart is close - less than 1 mile on service road. Lots of restaurants and shopping within walking distance or a short drive. Plenty of lighted parking. Don't be fooled by other reviews . . . when you first see hotel, there doesn't seem to be much parking, but the hotel owns all of the parking spaces behind the Honda dealership. We had a trailer, scooter, and a full size truck. We used three parking spaces with no problems. Room is clean and smells good. We stayed on 2nd floor. 1st through 3rd floors are non-smoking. All smokers are on 4th floor. We weren't happy with the first room we were assigned. The room was adjacent to the electrical room and the elevator. Light sleepers and constant hum was annoying. Upon notifying manager, we were offered another room immediately. 
 Pros: Extremely low rates, great value for the dollar, Staff - especially Descinda, are very courteous and go out of their way to make sure that your stay is comfortable, room is fairly large, nice kitchen area, full size refrigerator, air conditioning cools wonderfully, comfortable beds with ingenious underbed storage, weekly room cleaning included in rate, interior and exterior of hotel are very well maintained, Wireless internet available for a small weekly fee, 
 Cons: No front door canopy...Your review  Visiting family - extended stay‎ - ‎ - TodayLocation is great. Conveniently right off of I-30 but not too noisy. Wal-mart is close - less than 1 mile on service road. Lots of restaurants and shopping within walking distance or a short drive. Plenty of lighted parking. Don't be fooled by other reviews . . . when you first see hotel, there doesn't seem to be much parking, but the hotel owns all of the parking spaces behind the Honda dealership. We had a trailer, scooter, and a full size truck. We used three parking spaces with no problems. Room is clean and smells good. We stayed on 2nd floor. 1st through 3rd floors are non-smoking. All smokers are on 4th floor. We weren't happy with the first room we were assigned. The room was adjacent to the electrical room and the elevator. Light sleepers and constant hum was annoying. Upon notifying manager, we were offered another room immediately. Pros: Extremely low rates, great value for the dollar, Staff - especially Descinda, are very courteous and go out of their way to make sure that your stay is comfortable, room is fairly large, nice kitchen area, full size refrigerator, air conditioning cools wonderfully, comfortable beds with ingenious underbed storage, weekly room cleaning included in rate, interior and exterior of hotel are very well maintained, Wireless internet available for a small weekly fee, Cons: No front door canopy to cover from weather when loading or unloading, no views out of windows, no ice machines, smoke smell when entering building and elevator (however there is no smoke smell in room or hall), hotel only offers full size beds - only two floors plans available - 1 full size bed with sofa sleeper, or 2 full size beds with no sofa sleeper. For a couple, a perfect room would have been a queen size bed with a sofa, kitchen has stove top only - oven would have been nice. No black-out curtains for single window in room. Was able to drape blanket over window. I would have rated this hotel 5 stars if not for the few minor cons. We've extended our stay for another week, if that tells you anything. I wish there were more Value Place hotels available in our travels. Truly a great value. I would definitely recommend to a friend.More</t>
+  </si>
+  <si>
+    <t>cody91</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r30434741-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -1228,43 +1309,47 @@
       <c r="A2" t="n">
         <v>55798</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>182557</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1284,50 +1369,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55798</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>182558</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1341,50 +1430,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55798</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>182559</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1402,50 +1495,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55798</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>182560</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1463,50 +1560,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55798</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>182561</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1520,50 +1621,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55798</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1583,50 +1688,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55798</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>182562</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
         <v>92</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" t="s">
-        <v>86</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1644,50 +1753,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55798</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>182563</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1707,50 +1820,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55798</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>340</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1770,50 +1887,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55798</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>182564</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1831,50 +1952,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55798</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>182565</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1894,50 +2019,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>55798</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>12673</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1957,50 +2086,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>55798</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>24475</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2020,50 +2153,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>55798</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>18703</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2081,50 +2218,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>55798</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>182566</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2144,50 +2285,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>55798</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>182567</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2205,50 +2350,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>55798</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>182568</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2272,50 +2421,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>55798</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>182569</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2333,47 +2486,51 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="X19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>55798</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>182570</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -2402,50 +2559,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>55798</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>182571</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2469,50 +2630,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>55798</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>182572</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2536,50 +2701,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>55798</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>182573</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -2601,56 +2770,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="X23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>55798</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>182574</v>
+      </c>
+      <c r="C24" t="s">
+        <v>219</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2672,56 +2845,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="X24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>55798</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>182575</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -2743,47 +2920,51 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="X25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Y25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>55798</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>182576</v>
+      </c>
+      <c r="C26" t="s">
+        <v>238</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
@@ -2812,50 +2993,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>55798</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>182577</v>
+      </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2879,50 +3064,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>55798</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>182578</v>
+      </c>
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -2946,7 +3135,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_780.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_780.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,56 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>verydisappointed101</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r571835323-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>56567</t>
+  </si>
+  <si>
+    <t>858428</t>
+  </si>
+  <si>
+    <t>571835323</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Leaves plenty to be desired</t>
+  </si>
+  <si>
+    <t>I was booked into this hotel by my employer for nearly two months while at a work assignment in Rockwall.  
+The hotel appears to be decent from the outside and the property is convenient to nearly everything in Rockwall.  
+I understand that this is an extended stay property, but, so much can be done to make it a more attractive hotel.  
+The rooms are basic to say the least.  The linens are cheap and could certainly use replacement at this point.  The towels are paper thin and could not dry off a dish let alone your body after a shower.  
+The hallways reek of stale food and pet odors.  It constantly smells like someone burned something on the stove top.  
+I was surprised that the property stocked nothing in the room in regards to cookware or kitchen wares.  I had previously stayed in a similar long term stay hotel that provided the basic kitchen essentials so that you could utilize the kitchen.  
+No housekeeping is provided at all without a fee - and it appears that basic room maintenance is completely neglected as well.  The electronic locks on the entry doors and room doors malfunctions often requiring you to need your key to be reprogrammed.  This is highly inconvenient especially since after 10:00 - it takes time to get someone to help at the desk.  
+The property has potential but needs an intervention from management to take care of a...I was booked into this hotel by my employer for nearly two months while at a work assignment in Rockwall.  The hotel appears to be decent from the outside and the property is convenient to nearly everything in Rockwall.  I understand that this is an extended stay property, but, so much can be done to make it a more attractive hotel.  The rooms are basic to say the least.  The linens are cheap and could certainly use replacement at this point.  The towels are paper thin and could not dry off a dish let alone your body after a shower.  The hallways reek of stale food and pet odors.  It constantly smells like someone burned something on the stove top.  I was surprised that the property stocked nothing in the room in regards to cookware or kitchen wares.  I had previously stayed in a similar long term stay hotel that provided the basic kitchen essentials so that you could utilize the kitchen.  No housekeeping is provided at all without a fee - and it appears that basic room maintenance is completely neglected as well.  The electronic locks on the entry doors and room doors malfunctions often requiring you to need your key to be reprogrammed.  This is highly inconvenient especially since after 10:00 - it takes time to get someone to help at the desk.  The property has potential but needs an intervention from management to take care of a bunch of small problems that generally devalue the hotel enough to make it unpleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I was booked into this hotel by my employer for nearly two months while at a work assignment in Rockwall.  
+The hotel appears to be decent from the outside and the property is convenient to nearly everything in Rockwall.  
+I understand that this is an extended stay property, but, so much can be done to make it a more attractive hotel.  
+The rooms are basic to say the least.  The linens are cheap and could certainly use replacement at this point.  The towels are paper thin and could not dry off a dish let alone your body after a shower.  
+The hallways reek of stale food and pet odors.  It constantly smells like someone burned something on the stove top.  
+I was surprised that the property stocked nothing in the room in regards to cookware or kitchen wares.  I had previously stayed in a similar long term stay hotel that provided the basic kitchen essentials so that you could utilize the kitchen.  
+No housekeeping is provided at all without a fee - and it appears that basic room maintenance is completely neglected as well.  The electronic locks on the entry doors and room doors malfunctions often requiring you to need your key to be reprogrammed.  This is highly inconvenient especially since after 10:00 - it takes time to get someone to help at the desk.  
+The property has potential but needs an intervention from management to take care of a...I was booked into this hotel by my employer for nearly two months while at a work assignment in Rockwall.  The hotel appears to be decent from the outside and the property is convenient to nearly everything in Rockwall.  I understand that this is an extended stay property, but, so much can be done to make it a more attractive hotel.  The rooms are basic to say the least.  The linens are cheap and could certainly use replacement at this point.  The towels are paper thin and could not dry off a dish let alone your body after a shower.  The hallways reek of stale food and pet odors.  It constantly smells like someone burned something on the stove top.  I was surprised that the property stocked nothing in the room in regards to cookware or kitchen wares.  I had previously stayed in a similar long term stay hotel that provided the basic kitchen essentials so that you could utilize the kitchen.  No housekeeping is provided at all without a fee - and it appears that basic room maintenance is completely neglected as well.  The electronic locks on the entry doors and room doors malfunctions often requiring you to need your key to be reprogrammed.  This is highly inconvenient especially since after 10:00 - it takes time to get someone to help at the desk.  The property has potential but needs an intervention from management to take care of a bunch of small problems that generally devalue the hotel enough to make it unpleasant.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r545377470-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
-    <t>56567</t>
-  </si>
-  <si>
-    <t>858428</t>
-  </si>
-  <si>
     <t>545377470</t>
   </si>
   <si>
@@ -183,9 +218,6 @@
     <t>The room had such a horrible smell of animal urine, that no matter what you did to try to cover up the stench, you couldn't. They really need to designate certain rooms, or something for people with animals. That or pull all the carpet out of the room and just have stained concrete floors. Also, the laundry room always seems to be out of order as well as the back entrance doors, which are held open by rocks. The safety of this place, "is out the door!" Anyone can come and go. you don't need a key to enter the premises. Also, If you are planning on being her longer than a day, make sure you have EVERYTHING you need to utilize the "kitchenette." I mean EVERYTHING. we had to go purchase, pots &amp; pans, utensils, cups, plates, can opener, trash bags, toilet paper, etc... They supply you with NOTHING except, dingy sheets (yuck) two towels, two washcloths, tub towel for floor, and only 1 roll of toilet paper. It's evident why they are the cheapest extended stay around. I do love the location though. If you want half decent internet, that comes at an additional cost and is not secure.More</t>
   </si>
   <si>
-    <t>Tanja P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r538624368-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -204,9 +236,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>jto65442</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r530822316-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -225,7 +254,55 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t>overtonequitygroup</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r514665052-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>514665052</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Best General Manager Kimberly and overall staff</t>
+  </si>
+  <si>
+    <t>About 2 months ago I had a very negative Reivew that I did not share on most Review channels like Trip advisor or Yelp. It was such a challenge to me...I took it bit further to the Regional Manager.
+It was situations that I would not want to list to deter anyone from staying here and now the majority of my complaints have been fixed or corrected. So there is no need to highlight them again.
+However, I DO want to give a SPECIAL recognition to Kimberly (GM) and the Front desk staff and even the cleaning staff for all of their help and kindness during one of the worst parts of my stay. 
+After living for some time.. I see there are limits to what the GM can do and most issues require preapproval from the RM or Owner of Franchise. However, with that in mind- Kim still tries to find resolve in the interim.
+I have PERSONALLY experienced this.
+ I have personally experience situations of witnessing Kimberly (current GM) go out if her way to come up with a solution to any issue given what is in her control to do. I have seen and heard tenants rude with her and front desk staff.
+My situation was very bad for ME. I do not care to share my personal life here but what I was experiencing was traumatizing to me and in MY opinion put allot if not...About 2 months ago I had a very negative Reivew that I did not share on most Review channels like Trip advisor or Yelp. It was such a challenge to me...I took it bit further to the Regional Manager.It was situations that I would not want to list to deter anyone from staying here and now the majority of my complaints have been fixed or corrected. So there is no need to highlight them again.However, I DO want to give a SPECIAL recognition to Kimberly (GM) and the Front desk staff and even the cleaning staff for all of their help and kindness during one of the worst parts of my stay. After living for some time.. I see there are limits to what the GM can do and most issues require preapproval from the RM or Owner of Franchise. However, with that in mind- Kim still tries to find resolve in the interim.I have PERSONALLY experienced this. I have personally experience situations of witnessing Kimberly (current GM) go out if her way to come up with a solution to any issue given what is in her control to do. I have seen and heard tenants rude with her and front desk staff.My situation was very bad for ME. I do not care to share my personal life here but what I was experiencing was traumatizing to me and in MY opinion put allot if not the whole building in danger...yet again...I understood this was beyond the control of the Onsite staff.I took my concerns to the Regional Manager.Kim saw me at a very vulnerable and emotional state and I did share my previous experience with her as to why I was in such fear of what was hapoening here. Kim showed extreme HUMAN compassion to my concerns. The GM hat was off and she helped me as a human being and did all she could to help me feel safe and assure me that things were going to be ok.I think she and her staff deserve high praises for what they try to do and more so Kimberly for her dedication to making this a better place!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>About 2 months ago I had a very negative Reivew that I did not share on most Review channels like Trip advisor or Yelp. It was such a challenge to me...I took it bit further to the Regional Manager.
+It was situations that I would not want to list to deter anyone from staying here and now the majority of my complaints have been fixed or corrected. So there is no need to highlight them again.
+However, I DO want to give a SPECIAL recognition to Kimberly (GM) and the Front desk staff and even the cleaning staff for all of their help and kindness during one of the worst parts of my stay. 
+After living for some time.. I see there are limits to what the GM can do and most issues require preapproval from the RM or Owner of Franchise. However, with that in mind- Kim still tries to find resolve in the interim.
+I have PERSONALLY experienced this.
+ I have personally experience situations of witnessing Kimberly (current GM) go out if her way to come up with a solution to any issue given what is in her control to do. I have seen and heard tenants rude with her and front desk staff.
+My situation was very bad for ME. I do not care to share my personal life here but what I was experiencing was traumatizing to me and in MY opinion put allot if not...About 2 months ago I had a very negative Reivew that I did not share on most Review channels like Trip advisor or Yelp. It was such a challenge to me...I took it bit further to the Regional Manager.It was situations that I would not want to list to deter anyone from staying here and now the majority of my complaints have been fixed or corrected. So there is no need to highlight them again.However, I DO want to give a SPECIAL recognition to Kimberly (GM) and the Front desk staff and even the cleaning staff for all of their help and kindness during one of the worst parts of my stay. After living for some time.. I see there are limits to what the GM can do and most issues require preapproval from the RM or Owner of Franchise. However, with that in mind- Kim still tries to find resolve in the interim.I have PERSONALLY experienced this. I have personally experience situations of witnessing Kimberly (current GM) go out if her way to come up with a solution to any issue given what is in her control to do. I have seen and heard tenants rude with her and front desk staff.My situation was very bad for ME. I do not care to share my personal life here but what I was experiencing was traumatizing to me and in MY opinion put allot if not the whole building in danger...yet again...I understood this was beyond the control of the Onsite staff.I took my concerns to the Regional Manager.Kim saw me at a very vulnerable and emotional state and I did share my previous experience with her as to why I was in such fear of what was hapoening here. Kim showed extreme HUMAN compassion to my concerns. The GM hat was off and she helped me as a human being and did all she could to help me feel safe and assure me that things were going to be ok.I think she and her staff deserve high praises for what they try to do and more so Kimberly for her dedication to making this a better place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r513817741-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>513817741</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Reservations are worthless</t>
+  </si>
+  <si>
+    <t>My daughter booked this hotel a few months earlier.  On the way from the airport to the hotel she received a call that the hotel was full!  I know airlines bump passengers - well now hotels do too.  It worked out for the best as we stayed in a much nicer hotel and chose that one for our wedding guests, which was why we were staying in Rockwall.  We did swing by the hotel and asked why we were bumped - no explanation - and we were planning on staying 6 nights. Have a backup plan!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r513027962-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -243,13 +320,19 @@
     <t>I have had family members that have being staying at this location for well over a year do to resisting circumstances. I have personally seen employees come and go as well as tenants. As with any service oriented business you are going to have foul ups and so on. Things break etc. But in my experience the staff at this location is and has always been adamant about doing what ever they could to accommodate my family there. As some things transitioned, a new manager took the helm (Kim). I thought it was the best that could be gotten from extended stay hotel. But Kim took it to the next level. very professional. yet not stoic and non personal. Its very clear that NO ONE is not just another dollar to her, and that energy reflects in her staff and the guest there as well. Very accommodating and attentive to the needs of guest. Even those who seem mad at the world, Kim and the staff at this Woodsprings continue to smile (authentically) and listen attentively to resolve whatever...WHENEVER. (yes I've seen people lose keys at 3 am). I highly would recommend this location to anyone traveling ... working or needing a place for an unknown amount of time.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>I have had family members that have being staying at this location for well over a year do to resisting circumstances. I have personally seen employees come and go as well as tenants. As with any service oriented business you are going to have foul ups and so on. Things break etc. But in my experience the staff at this location is and has always been adamant about doing what ever they could to accommodate my family there. As some things transitioned, a new manager took the helm (Kim). I thought it was the best that could be gotten from extended stay hotel. But Kim took it to the next level. very professional. yet not stoic and non personal. Its very clear that NO ONE is not just another dollar to her, and that energy reflects in her staff and the guest there as well. Very accommodating and attentive to the needs of guest. Even those who seem mad at the world, Kim and the staff at this Woodsprings continue to smile (authentically) and listen attentively to resolve whatever...WHENEVER. (yes I've seen people lose keys at 3 am). I highly would recommend this location to anyone traveling ... working or needing a place for an unknown amount of time.More</t>
   </si>
   <si>
-    <t>hotelfoster</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r512922926-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>512922926</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>The front desk manager, Kim made my visit so accommodating while I was visiting my sister when she was ill! She was extremely helpful in making sure I was able to get in and up to the room. She even checked on us to make sure everything was okay after a while.  The fact that she did that, spoke volumes and really made me feel like she wasn't just there for a paycheck, but that she genuinely cares. I would definitely recommend this place, hands down. A caring staff goes a long way in my book!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r503674339-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -267,15 +350,9 @@
     <t>We have had this room paid for for a week. Arrived today, great service however upon bringing my kids upstairs to the room, we immediately smelled some god awful smell and then I walked over to the a/c and the whole floor was soaked from the a/c!! 0.o Then my husband realized someone actually went to the lengths of shoving some towels under there. Which tells me, they knew they had an issue and still allowed me to pay $500 with my card and check in. Then the general manager came up and agreed, she then proceeded to say she has two options; she can move us into her room downstairs, or put us into a single bed. How is giving someone their money back peacefully and just admitting this was a huge mistake on their behalf, not an option???! My eyes are burning it smells so awful and I am still having to deal with it until something is figured out. Not that I have ever had this issue, but I couldn't imagine it going much worse. MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>We have had this room paid for for a week. Arrived today, great service however upon bringing my kids upstairs to the room, we immediately smelled some god awful smell and then I walked over to the a/c and the whole floor was soaked from the a/c!! 0.o Then my husband realized someone actually went to the lengths of shoving some towels under there. Which tells me, they knew they had an issue and still allowed me to pay $500 with my card and check in. Then the general manager came up and agreed, she then proceeded to say she has two options; she can move us into her room downstairs, or put us into a single bed. How is giving someone their money back peacefully and just admitting this was a huge mistake on their behalf, not an option???! My eyes are burning it smells so awful and I am still having to deal with it until something is figured out. Not that I have ever had this issue, but I couldn't imagine it going much worse. More</t>
   </si>
   <si>
-    <t>Mark B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r477748023-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -300,7 +377,37 @@
     <t>Over the past couple years I've had the need to stay in an extended stay hotel several times.This is the 3rd time i've stayed at WoodSprings Suites in Rockwall, each stay ranged from 2 to 4 months, and each time was excellent. The management team is friendly and professional. On my current stay I was checked in by Kayla who went above and beyond to make sure i had everything i needed to make my stay enjoyable. This hotel is clean, quiet and meticulously maintained both inside and out, with everything you need to make your stay away from home feel as close to being at home as possible. Thanks to Kimberly and here team, I will be back.More</t>
   </si>
   <si>
-    <t>lonestarlady1170</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r475368081-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>475368081</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Stop off on way to SouthFork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here as happened upon the lovely 'historic' square of Rockwell which has good shops and eating drinking spots on my way to 'Southfork Ranch'. It was cheap and cheerful although as self catering the whole place smells of food. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r472232888-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>472232888</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>WoodSprings Suites Rockwall TX</t>
+  </si>
+  <si>
+    <t>Had the pleasure of visiting the city of Rockwall work related and must say both property and management/administration very up to par and great details in customer service, attentiveness and cleanliness in rooms. Requested management Ms. Kimberly Reeves for an early checkin in the morning hours and she was extremely profesional, great attitude and awesome smile even at 6am. Her front desk staff of Mrs. Decinda Sarratt, Heather and housekeeping staff extremely very well trained in customer satisfaction and service. Again, very glad I stayed at WoodSprings Suites Rockwall TX and definitely would recommend them for future trip. Lastly my most sincere thanks to Manager Ms. Kimberly Reeves and her full staff, respectfully EDGARDO​ PABÓN. MoreShow less</t>
+  </si>
+  <si>
+    <t>Had the pleasure of visiting the city of Rockwall work related and must say both property and management/administration very up to par and great details in customer service, attentiveness and cleanliness in rooms. Requested management Ms. Kimberly Reeves for an early checkin in the morning hours and she was extremely profesional, great attitude and awesome smile even at 6am. Her front desk staff of Mrs. Decinda Sarratt, Heather and housekeeping staff extremely very well trained in customer satisfaction and service. Again, very glad I stayed at WoodSprings Suites Rockwall TX and definitely would recommend them for future trip. Lastly my most sincere thanks to Manager Ms. Kimberly Reeves and her full staff, respectfully EDGARDO​ PABÓN. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r465597715-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -324,9 +431,6 @@
     <t>I have been here for almost three months. I was hurt on the job and unable to return to work. My stay here has been absolutely fantastic! Miss Kimberely Reeves, manager, sees that she knows each of her guests and is always willing to do what it takes to make your stay here as comfortable as possible. She always makes it a point to handle your concerns in an expeditious manner. The house keeping is amazing as well. Miss Mindy Jarret has always made sure I have everything I need. These two ladies have gone above and beyond their duties to make my stay very comfortable. Would stay here again. Thank you ladies for your excellent work. It is very much appreciated.More</t>
   </si>
   <si>
-    <t>DeDe D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r458571252-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -348,9 +452,6 @@
     <t>I moved to this Hotel in 2014, I didn't have a place to stay so I had to move in before check out time  I called and asked Descinda the general manager was it ok to move in early she explained to me that would be fine so I moved in early that morning in order to be to work by 1p.m. This is a very nice clean place to stay and the staff is awesome.  Kim, the front desk manager and Desicinda the general manager go out of their way to make sure your stay is very comfortable.  I'm still here in 2017 both my jobs are right across the street, this hotel is very convenient for me to get to and from work without a car. I would recommend this hotel to friends and family.More</t>
   </si>
   <si>
-    <t>Lisa K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r406147167-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -369,7 +470,40 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>mmurphy530</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r386497333-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>386497333</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Six Month Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at the Value Place in Rockwall, TX for 6 months. It was due to a low-budget relocation to the eastern DFW area. This place was a GOD send! It is clean, safe, and the staff is great! Rockwall sits on the banks of beautiful Lake Ray Hubbard. There are lots of attractions in this quaint town that is northeast of the DFW. Furthermore, the staff was extremely hospitable. Kimberli, Tiffany, Alisha, and Decinda had a bright smile every time I saw them. They were very accommodating and courteous. When I return to Texas, I may stay with them again, at least the first month or two. </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r371847143-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>371847143</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Great  place while in transition</t>
+  </si>
+  <si>
+    <t>It ended up being a rough time for us relocating from Ft. Hood to Forney. House fell through, job fell through. But through the whole thing Kimberly and the staff were awesome. We ended up having to come back to Killeen but would definitely use this facility again.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r358463691-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -390,9 +524,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>alancwray</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r354174391-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -411,9 +542,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Dawn R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r353420626-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -429,13 +557,50 @@
     <t>Stayed at Value Place Rockwall for 8 weeks straight while doing a travel assignment for my job. The room was fine, I felt safe being a single woman traveling, it suited my needs so I had no complaints. Having a full size fridge was a plus. Because of the length of my stay, I was able to grocery shop and stock up on things in order to avoid shopping daily. The manager, Decinda was very nice. But Kimberly that worked at the front desk, was absolutely wonderful. Very helpful in every way, including short cuts to get around town, suggestions on where to shop, even asking how I was doing with my job whenever I passed by the front desk. I would stay here again if necessary for work.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Stayed at Value Place Rockwall for 8 weeks straight while doing a travel assignment for my job. The room was fine, I felt safe being a single woman traveling, it suited my needs so I had no complaints. Having a full size fridge was a plus. Because of the length of my stay, I was able to grocery shop and stock up on things in order to avoid shopping daily. The manager, Decinda was very nice. But Kimberly that worked at the front desk, was absolutely wonderful. Very helpful in every way, including short cuts to get around town, suggestions on where to shop, even asking how I was doing with my job whenever I passed by the front desk. I would stay here again if necessary for work.More</t>
   </si>
   <si>
-    <t>Nick L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r346160530-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>346160530</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Staff is excellent!</t>
+  </si>
+  <si>
+    <t>Value Place as a brand is exactly what you pay for. You have a place to sleep, roof over your head, a kitchen, bathroom and TV, and that's about it. But the staff at this location make up for the mediocrity of the brand. From day one every staff member I came into contact with was helpful, thoughtful and really cared. They look out for you and make you feel safe. While I was here a tornado came close to the area, and one of the staff members was preparing  by pulling mattresses out of empty rooms, "just in case." Every person that works here truly cares and wants you to have a great stay!
+I definitely would stay here again, and recommend to my friends.
+Things to keep in mind (this is a Value Place thing): you have to pay extra for everything! If you are here for an extended stay, you have to buy your own toilet paper or pay for extra housekeeping. Same with utensils, plates, cups, pots/pans, etc., you have a kitchen, but not the supplies. Also a huge downside for me and why I ultimately ended up getting an apartment (I'm relocating to the area, and didn't want an apartment because I didn't want to sign a lease, but ultimately had to due to this policy) is they don't allow pets. I know I'm not the only person on this planet who travels and/or relocates...Value Place as a brand is exactly what you pay for. You have a place to sleep, roof over your head, a kitchen, bathroom and TV, and that's about it. But the staff at this location make up for the mediocrity of the brand. From day one every staff member I came into contact with was helpful, thoughtful and really cared. They look out for you and make you feel safe. While I was here a tornado came close to the area, and one of the staff members was preparing  by pulling mattresses out of empty rooms, "just in case." Every person that works here truly cares and wants you to have a great stay!I definitely would stay here again, and recommend to my friends.Things to keep in mind (this is a Value Place thing): you have to pay extra for everything! If you are here for an extended stay, you have to buy your own toilet paper or pay for extra housekeeping. Same with utensils, plates, cups, pots/pans, etc., you have a kitchen, but not the supplies. Also a huge downside for me and why I ultimately ended up getting an apartment (I'm relocating to the area, and didn't want an apartment because I didn't want to sign a lease, but ultimately had to due to this policy) is they don't allow pets. I know I'm not the only person on this planet who travels and/or relocates with their pets. For me, I had to be away from my husband for several months, because he had to stay with our house (and with the pets) because this place didn't allow pets. Again, though, all of those policies are Value Place policies not just this location! Parking is great. When they get busy, you may have to park a little ways off, but it's not horrible. As for location, Rockwall is a short drive from Dallas, and you get the wonderful view of the reservoir when you commute! The only thing that I didn't like about the location is its right off I-30, so you have to deal with the frontage road and people merging on/off the interstate. It's close to lots of fast food, shopping, gas stations, etc.Overall I had a great stay and would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Value Place as a brand is exactly what you pay for. You have a place to sleep, roof over your head, a kitchen, bathroom and TV, and that's about it. But the staff at this location make up for the mediocrity of the brand. From day one every staff member I came into contact with was helpful, thoughtful and really cared. They look out for you and make you feel safe. While I was here a tornado came close to the area, and one of the staff members was preparing  by pulling mattresses out of empty rooms, "just in case." Every person that works here truly cares and wants you to have a great stay!
+I definitely would stay here again, and recommend to my friends.
+Things to keep in mind (this is a Value Place thing): you have to pay extra for everything! If you are here for an extended stay, you have to buy your own toilet paper or pay for extra housekeeping. Same with utensils, plates, cups, pots/pans, etc., you have a kitchen, but not the supplies. Also a huge downside for me and why I ultimately ended up getting an apartment (I'm relocating to the area, and didn't want an apartment because I didn't want to sign a lease, but ultimately had to due to this policy) is they don't allow pets. I know I'm not the only person on this planet who travels and/or relocates...Value Place as a brand is exactly what you pay for. You have a place to sleep, roof over your head, a kitchen, bathroom and TV, and that's about it. But the staff at this location make up for the mediocrity of the brand. From day one every staff member I came into contact with was helpful, thoughtful and really cared. They look out for you and make you feel safe. While I was here a tornado came close to the area, and one of the staff members was preparing  by pulling mattresses out of empty rooms, "just in case." Every person that works here truly cares and wants you to have a great stay!I definitely would stay here again, and recommend to my friends.Things to keep in mind (this is a Value Place thing): you have to pay extra for everything! If you are here for an extended stay, you have to buy your own toilet paper or pay for extra housekeeping. Same with utensils, plates, cups, pots/pans, etc., you have a kitchen, but not the supplies. Also a huge downside for me and why I ultimately ended up getting an apartment (I'm relocating to the area, and didn't want an apartment because I didn't want to sign a lease, but ultimately had to due to this policy) is they don't allow pets. I know I'm not the only person on this planet who travels and/or relocates with their pets. For me, I had to be away from my husband for several months, because he had to stay with our house (and with the pets) because this place didn't allow pets. Again, though, all of those policies are Value Place policies not just this location! Parking is great. When they get busy, you may have to park a little ways off, but it's not horrible. As for location, Rockwall is a short drive from Dallas, and you get the wonderful view of the reservoir when you commute! The only thing that I didn't like about the location is its right off I-30, so you have to deal with the frontage road and people merging on/off the interstate. It's close to lots of fast food, shopping, gas stations, etc.Overall I had a great stay and would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r345205551-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>345205551</t>
+  </si>
+  <si>
+    <t>02/05/2016</t>
+  </si>
+  <si>
+    <t>The best place I have ever stayed</t>
+  </si>
+  <si>
+    <t>The Value Place Rockwall has been the best place that I have ever stayed in. The Manager, Decinda Sarrat is a privilege to no as a person. When I first entered the Value Place I was greeted with such grace and a warm presence. And that is what really made me stay at the Value Place. I was really at a hard time in my life and did not want to come to a place that had an attitude problem. Now I have been here 1 year and 2 months and I love it. If a person has a problem here at Value Place. It is not the employee here. It is the person trying to deal with there own problems. The employees are friendly and very helpful. The areas are always clean. If you have a problem with anything, the manager( Decinda Sarrat) will get right on the problem and solve it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>The Value Place Rockwall has been the best place that I have ever stayed in. The Manager, Decinda Sarrat is a privilege to no as a person. When I first entered the Value Place I was greeted with such grace and a warm presence. And that is what really made me stay at the Value Place. I was really at a hard time in my life and did not want to come to a place that had an attitude problem. Now I have been here 1 year and 2 months and I love it. If a person has a problem here at Value Place. It is not the employee here. It is the person trying to deal with there own problems. The employees are friendly and very helpful. The areas are always clean. If you have a problem with anything, the manager( Decinda Sarrat) will get right on the problem and solve it.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r343678048-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -454,9 +619,6 @@
   </si>
   <si>
     <t>I encourage every single guest that stays at this hotel to view their detailed statement. I have been charged for Internet several times that I didn't select. I had a positive balance on my account, which the front desk refused to acknowledge and when I approached them about it, they completely dismissed me. Even thought I watched her go through the math from my detailed account summary, and her coming up with the same exact numbers I had calculated she just said, "nope you're wrong." The complete lack of professionalism was ASTOUNDING. Attacking me personally because I have a question about my bill! This woman told me she was an accountant, yet every time she did the math on my account she came up with a different number. If your math was so rock solid Pythagorus you wouldn't have gotten a different answer every time! Think about it! If they are doing this to me, I'm sure its happening to others who aren't paying attention to their bill. So I encourage you to do so. I would post my account summary but it will not let me on a review. You can message me directly and Illl share with you. It was really sad actually. All I wanted was some clarification yet both of these ladies said I was wrong because they cannot add. OH and I even talked to TechSupport because in order to renew your internet each week...I encourage every single guest that stays at this hotel to view their detailed statement. I have been charged for Internet several times that I didn't select. I had a positive balance on my account, which the front desk refused to acknowledge and when I approached them about it, they completely dismissed me. Even thought I watched her go through the math from my detailed account summary, and her coming up with the same exact numbers I had calculated she just said, "nope you're wrong." The complete lack of professionalism was ASTOUNDING. Attacking me personally because I have a question about my bill! This woman told me she was an accountant, yet every time she did the math on my account she came up with a different number. If your math was so rock solid Pythagorus you wouldn't have gotten a different answer every time! Think about it! If they are doing this to me, I'm sure its happening to others who aren't paying attention to their bill. So I encourage you to do so. I would post my account summary but it will not let me on a review. You can message me directly and Illl share with you. It was really sad actually. All I wanted was some clarification yet both of these ladies said I was wrong because they cannot add. OH and I even talked to TechSupport because in order to renew your internet each week you have to re-select the speed. But, my laptop wasn't connecting so TechSupport had to connect me manually. I called them and they confirmed I had not selected or technically asked them to connect me to high-speed internet. The guy at tech support was very helpful and he offered to call the front desk. So of course I asked them about this and they basically just called me a liar. So yea.. Enjoy your stay!More</t>
-  </si>
-  <si>
-    <t>Jim B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r330306721-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -484,9 +646,6 @@
 I have talked to many long term residents (over a year) and they tell me the same. That this place is a money pit, and it used to be a place to save for a new beginning. Rumor is there is a couple in this location that does still get a four week discount, management picks who I guess....I have lived here four years plus. Shortly after I moved here I started paying four weeks rent at a time, and received a discount. In April 2015 I got news that I had skin cancer on my nose and had it surgically removed. I spent my cash on the surgery and could not pay the four week rent and paid for one week. When I was able to pay another four week rental, I was told they no longer gave residents the four week discount and have been paying rent as if I just checked in every week since!  I moved in paying about $225 a week and now it is $279.99 a week and I have no idea where the extra expense is from. I am a single male and I have received no more amenities than I did when I moved in.  I do not get toilet paper, soap, when my room is cleaned every other week. My bed blanket and bedspread has never been washed until I took it to the office to be exchanged just recently.I have talked to many long term residents (over a year) and they tell me the same. That this place is a money pit, and it used to be a place to save for a new beginning. Rumor is there is a couple in this location that does still get a four week discount, management picks who I guess. Recently this location changed to accept nightly stays and I know must be much more profitable, I do not know why the long term residents must suffer when this location has to be making more profit then ever before.I did contact customer service via e-mail but never got a response not even an acknowledgement or thank you for contacting us.More</t>
   </si>
   <si>
-    <t>883ashleyd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r308088424-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -508,7 +667,34 @@
     <t>My family and I stay at the Rockwall. Texas location.  The staff are very attentive to the needs of the customers.  The manager and office staff are very kind to the customers.  If there is a need and the Decinda Sarratt is an amazing manager.  We had a situation with billing and she gave great customer service.  My family has stayed at different locations, but this location is great.  Mrs. Kim always greets the customers with a smile and assist when she can.  The room is kept clean.  Service is great.  Will return for another stay. I recommend this hotel if you need a few weeks of home living and good people to be around.More</t>
   </si>
   <si>
-    <t>bobcatbill</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r304772905-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>304772905</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Quick and simple</t>
+  </si>
+  <si>
+    <t>Great place to stay short term or long term. Staff was very friendly and was glad to answer Any questions I had. Also price was the best around. I would recommend this location to anyone. There is a park in walking distance, food, shopping and the beautiful Rockwall Harbor within a few miles as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r295761483-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>295761483</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Granite installer</t>
+  </si>
+  <si>
+    <t>After being at the hotel for a week had to.extend for two days and to.my surprise the rate almost doubled and not even a fresh towel.I travel for work and stay in hotels constantly.This chain won't have to worry about anymore of my business!I asked about the rate when I checked in and then it changed.For that price I would ]refer to stay somewhere they appreciate my business and actually do something to earn my money!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r285405063-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -526,15 +712,9 @@
     <t>Had a week long stay booked here as our first experience at Value Place. The price is good for an extended stay but the concept was not a good fit for our family. More than two towels = extra charge. Pots and pans = extra charge. Lots of basic items one would think would be included like cleaning the room and changing out the two towels cost extra. Probably to be expected based on the price point but not a fan of this setup. We booked a two bed suite for our family of five and the full size beds were not comfortable to sleep two people. Odd, map smell and the cramped room led us to check out two days early (no money was refunded) and try another hotel in the area.MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>Had a week long stay booked here as our first experience at Value Place. The price is good for an extended stay but the concept was not a good fit for our family. More than two towels = extra charge. Pots and pans = extra charge. Lots of basic items one would think would be included like cleaning the room and changing out the two towels cost extra. Probably to be expected based on the price point but not a fan of this setup. We booked a two bed suite for our family of five and the full size beds were not comfortable to sleep two people. Odd, map smell and the cramped room led us to check out two days early (no money was refunded) and try another hotel in the area.More</t>
   </si>
   <si>
-    <t>Paul H B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r263525338-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -550,12 +730,6 @@
     <t>Nice secure, functional and comfortable place to stay. I would surely recommend to someone else.  Location was ideal. Bed clean and comfortable. Inside card access and outside fencing made security a non-issue.</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
-    <t>IL_Adventurer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r246443935-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -583,7 +757,37 @@
     <t>If you're looking for something fancy, this is not your place.  There were two double beds (not queen) in our room.  Everything was very clean and neat.  Everything worked great.  Wasn't sure if I would feel safe here, but I felt quite safe for the whole family.  Very quiet and peaceful.  Room only comes with two towels.  Be sure to ask for more if you need them when you check in.  Staff was friendly and helpful.  When you reserve a room on their website, the basic rate states that it includes taxes and fees.  It does NOT include taxes and fees.  They will be added in.  Even so, it's a great value if you need to stay a week here.  I will stay here again when we're in town.More</t>
   </si>
   <si>
-    <t>Clarkgal1</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r199652232-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>199652232</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Cleanest facility and the nicest and most accomadating staff of anywhere I have stayed.</t>
+  </si>
+  <si>
+    <t>From check-in to checkout every single staff member I encountered went out of their way to make me feel welcome. This was by far the cleanest motel I have ever stayed in. Both inside and out. My highest recommendation to the ValuePlace in Rockwall, Tx!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r187715036-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>187715036</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>staff and rooms</t>
+  </si>
+  <si>
+    <t>Was very clean, staff was friendly and always helpful. Only complaint we have is the hard mattress.  Otherwise everything was good.Good location, restuarants and a walmart nearby,  when in area wil go back again, and we would recommend this to people.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r165383805-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -601,9 +805,6 @@
     <t>This our first stay at a Value Place.  We were treated very well and the afternoon and evening attendant were very accommodating .  We were traveling with my 93 year old mom and everyone went out of there way to help us get settled in.  The room was very clean and comfortable.</t>
   </si>
   <si>
-    <t>LinnieInPensacola</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r146572141-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -625,9 +826,6 @@
     <t>After getting into our room I noticed caked on dirt in the microvave that did not even work, and stove top burners with caked on grease . The tub was disgusting with a back ring around it. The bedspread's spelled like urine. The real kicker was that they only clean the rooms once every 2 weeks when you stay there. If you want clean lenens or your room cleaned more often then 2 weeks - you pay extra for each. when I called the front desk to tell them, I was told by the manager that Maybe I should find another  hotel to stay. My husband called the corp office of Value place and they had the manager and housekeeper come clean the room, and replace the broken ice trays,Microwave that were in the freezer. After the week was almost up the manager told me to find another hotel as she was upset that I would call the corperate office and tell them of the discusting room. Corp Office was nice but that woman that calls herself hotel manager needs to take a class on cleanliness - let her stay in that nasty room. We travel alot, and would never stay there again. The beds are on a wood slab  with springs poking you on both beds. I have stayed in other Value places in other states, and never had a problem. This one in Rockwall,TX was really bad!!!More</t>
   </si>
   <si>
-    <t>CL A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r130580244-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -649,7 +847,55 @@
     <t>This is the second time during my stay that VP has raised the rates.  The notice indicated I would agree that with the rate increase, it was still a great value.  Well, unfortunately, I quite disagree.  This rate increase came with no improvements to the rooms or the property.  The only change is a kiyosk that continuously loops to show the rooms with bedspreads that have not been update since the opening.  Shower curtains that you have to change when they get worn.  Night before notices for pest control or a/c cleaning.  Grounds that continuously have beer cans and other alcoholic beverage containers in the parking lot.  I can only hope the staff will see some of this rate increase as Tim, Dacinda and Ross are great.  The service staff is also very friendly although I don't know their names.  I have a feeling the rate is paying for the kiosk when they should have considered updating their computer system which always manages to crash when you need to renew.More</t>
   </si>
   <si>
-    <t>ryan t</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r126736547-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>126736547</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>Pay raise for Tim</t>
+  </si>
+  <si>
+    <t>Tim Goyne, the longest serving Value Place Safety Attendant, is a wonderful employee at the Rockwall, Texas, location.  Tim is willing to meet customers’ needs 24-hours a day.  Whether he is helping guest check in or keeping them safe and secure in and outside the building, Tim is a pleasant, polite, positive, and powerful public relations manager for Value Place nationwide.  I suggest Value Place bestow upon Tim a pay raise, a day off, and unlimited free use of the company car!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Dallas Rockwall, responded to this reviewResponded March 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2012</t>
+  </si>
+  <si>
+    <t>Tim Goyne, the longest serving Value Place Safety Attendant, is a wonderful employee at the Rockwall, Texas, location.  Tim is willing to meet customers’ needs 24-hours a day.  Whether he is helping guest check in or keeping them safe and secure in and outside the building, Tim is a pleasant, polite, positive, and powerful public relations manager for Value Place nationwide.  I suggest Value Place bestow upon Tim a pay raise, a day off, and unlimited free use of the company car!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r124068558-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>124068558</t>
+  </si>
+  <si>
+    <t>02/03/2012</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>The staff are very helpful and polite. The hotel was clean and quiet. I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Dallas Rockwall, responded to this reviewResponded February 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2012</t>
+  </si>
+  <si>
+    <t>The staff are very helpful and polite. The hotel was clean and quiet. I highly recommend this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r120260490-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -679,9 +925,6 @@
     <t>I stayed here in mid october and let me tell you! The worst hotel i have ever been too. The bald headed desk guy creeps me out to. He would walk around outside at 1 in the morning and i saw him shining a flashlight into windows....kind of wierd...not to mention how doped up he looked. ROACHES EVERYWHERE! the stove top was convenient though. Lots of wierd people live here. Most looked like pedophiles...i'd rather hit up a motel 8 next time. Good travels!!!More</t>
   </si>
   <si>
-    <t>scaffold</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r119442404-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -709,9 +952,6 @@
     <t>I travel throughout the US with my job staying anywhere from 2 weeks to a year at any given spot I have found the Value Place in Rockwall to be Great. Staff is excellent, Generally quiet, and for those that have complained about the cooking smells Get over it I quess you microwave everything. Only Issue is the slow elevator but it is the same at every Value Place.More</t>
   </si>
   <si>
-    <t>JBJ315</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r119003475-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -736,7 +976,40 @@
     <t>This has been a second "home" for me several times, and I would not hesitate to stay here again.  The desk clerks are all very helpful, friendly, and down to earth.  The room service has been superb, as has the maintenance.  Those who have complaints need to remember that this is not a personal property.  Of course there will be noises, smells, etc. (as someone complained about).  It's a multi-unit facility with all types of tenants.  I consider that a reflection of the individual, not the property.  The solution is to get your own personal place, or stop being so easily irritated.  Sure, there's a few bugs; that's anywhere.  I had the opportunity to do a few home-cooked meals myself, and it was awesome!  I haven't had hot water cornbread in a very long time, but was able to do it here.  This will be my place of choice for all extended visits to the area.  Thanks, everybody, for a fantastic stay!More</t>
   </si>
   <si>
-    <t>Giampda</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r116279426-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>116279426</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>The management will work with you to make your stay the best as possible.The rooms are perfect. They even have a stove top if you would like a great meal.Feels like a home away from home.Parking is never a problem.AC is amazing and unlimited for this Texas Heat!!!Flat screen tv!!!My favorite place to stay while I'm staying in Rockwall.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>The management will work with you to make your stay the best as possible.The rooms are perfect. They even have a stove top if you would like a great meal.Feels like a home away from home.Parking is never a problem.AC is amazing and unlimited for this Texas Heat!!!Flat screen tv!!!My favorite place to stay while I'm staying in Rockwall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r116276580-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>116276580</t>
+  </si>
+  <si>
+    <t>BEST EXTENDED STAY HOTEL FOR THE BEST PRICE!</t>
+  </si>
+  <si>
+    <t>I have been traveling for my job for the last 2 years. I stay in hotels 2 weeks at the time and then go to the next one. I have to cover all my expences so the hotel price for me is very important and that is why I always stay at Value Place when ever I can. Honestly I have yet to find a better, more economical, efficient and clean place then Value Place. I have just stayed 2 weeks at Trophy Club,Tx and Tina (Property Mang.) was super nice. Now I'm staying in Rockwall, Tx and Decinda (Property Mang.) making sure everything is perfect. All the staff members are doing a wonderful job. This is my third time at this location. I have probably stayed at least 10 different  Value Places all over Texas, Oklahoma, Missouri and Arkansas.  I have found Value Place staff members are generally very caring and want you to have a great stay. HIGHLY RECOMMENDED!   MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been traveling for my job for the last 2 years. I stay in hotels 2 weeks at the time and then go to the next one. I have to cover all my expences so the hotel price for me is very important and that is why I always stay at Value Place when ever I can. Honestly I have yet to find a better, more economical, efficient and clean place then Value Place. I have just stayed 2 weeks at Trophy Club,Tx and Tina (Property Mang.) was super nice. Now I'm staying in Rockwall, Tx and Decinda (Property Mang.) making sure everything is perfect. All the staff members are doing a wonderful job. This is my third time at this location. I have probably stayed at least 10 different  Value Places all over Texas, Oklahoma, Missouri and Arkansas.  I have found Value Place staff members are generally very caring and want you to have a great stay. HIGHLY RECOMMENDED!   More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r101946078-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -752,9 +1025,6 @@
   </si>
   <si>
     <t xml:space="preserve">I decided to try this hotel based on the TA reviews. What a mistake. If you ever want to know what it's like to live with homeless people, stay at this hotel. The hallways smelled of cooking food, in a bad way. It sounded like 10 people were living in the room next door. Kids and babies crying. There was a dead cockroach in the stairwell. Also, the wall in my room had a big splatter mark which looked like someone killed a cockroach on the wall. There were people yelling in the parking lot at night. The laundry room looked dirty. Never again. </t>
-  </si>
-  <si>
-    <t>travelingreviewers58</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r80956949-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
@@ -786,9 +1056,6 @@
 Cons: No front door canopy...Your review  Visiting family - extended stay‎ - ‎ - TodayLocation is great. Conveniently right off of I-30 but not too noisy. Wal-mart is close - less than 1 mile on service road. Lots of restaurants and shopping within walking distance or a short drive. Plenty of lighted parking. Don't be fooled by other reviews . . . when you first see hotel, there doesn't seem to be much parking, but the hotel owns all of the parking spaces behind the Honda dealership. We had a trailer, scooter, and a full size truck. We used three parking spaces with no problems. Room is clean and smells good. We stayed on 2nd floor. 1st through 3rd floors are non-smoking. All smokers are on 4th floor. We weren't happy with the first room we were assigned. The room was adjacent to the electrical room and the elevator. Light sleepers and constant hum was annoying. Upon notifying manager, we were offered another room immediately. Pros: Extremely low rates, great value for the dollar, Staff - especially Descinda, are very courteous and go out of their way to make sure that your stay is comfortable, room is fairly large, nice kitchen area, full size refrigerator, air conditioning cools wonderfully, comfortable beds with ingenious underbed storage, weekly room cleaning included in rate, interior and exterior of hotel are very well maintained, Wireless internet available for a small weekly fee, Cons: No front door canopy to cover from weather when loading or unloading, no views out of windows, no ice machines, smoke smell when entering building and elevator (however there is no smoke smell in room or hall), hotel only offers full size beds - only two floors plans available - 1 full size bed with sofa sleeper, or 2 full size beds with no sofa sleeper. For a couple, a perfect room would have been a queen size bed with a sofa, kitchen has stove top only - oven would have been nice. No black-out curtains for single window in room. Was able to drape blanket over window. I would have rated this hotel 5 stars if not for the few minor cons. We've extended our stay for another week, if that tells you anything. I wish there were more Value Place hotels available in our travels. Truly a great value. I would definitely recommend to a friend.More</t>
   </si>
   <si>
-    <t>cody91</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r30434741-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -805,6 +1072,27 @@
   </si>
   <si>
     <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d858428-r18867177-WoodSpring_Suites_Dallas_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>18867177</t>
+  </si>
+  <si>
+    <t>08/11/2008</t>
+  </si>
+  <si>
+    <t>very nice place, but....</t>
+  </si>
+  <si>
+    <t>Bottem line: for the price, well worth it.  Very friendly staff, &amp; helpful.  Could have used a few more parking spaces, but I always managed to find one.  Quiet, no noise. Near shopping , right on I-30.  At the check-in desk they're great when they're there. They don't get up early, and leave early too.  The room: It looked very clean. Well designed.  Small but efficient kitchenette, sink, counter, 2 burner stove, and full size fridge. Drawers and room for pots, pans etc. Bed very comfy. Desk, chair and tv. Room avg. size.  Did not see any pots, silverware or coffeepot though, so I asked at the desk.  They said pots were available for a fee, but they were out. I bought a pan at Walmart. Same with the silverware.  Coffeemakers they had, but they said I had to buy one. (no, not kidding) I borrowed one from a friend.   I would go back there in a sec, if it wasn't for one thing.  My 3rd day there, I walked into the room and there was a roach on the wall. Any other kind of bug, long as its not more than one or two , I don't care, but in my experience, where there's one roach, there's many, many, more. Its cause of that, I will not go back . BCMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>Bottem line: for the price, well worth it.  Very friendly staff, &amp; helpful.  Could have used a few more parking spaces, but I always managed to find one.  Quiet, no noise. Near shopping , right on I-30.  At the check-in desk they're great when they're there. They don't get up early, and leave early too.  The room: It looked very clean. Well designed.  Small but efficient kitchenette, sink, counter, 2 burner stove, and full size fridge. Drawers and room for pots, pans etc. Bed very comfy. Desk, chair and tv. Room avg. size.  Did not see any pots, silverware or coffeepot though, so I asked at the desk.  They said pots were available for a fee, but they were out. I bought a pan at Walmart. Same with the silverware.  Coffeemakers they had, but they said I had to buy one. (no, not kidding) I borrowed one from a friend.   I would go back there in a sec, if it wasn't for one thing.  My 3rd day there, I walked into the room and there was a roach on the wall. Any other kind of bug, long as its not more than one or two , I don't care, but in my experience, where there's one roach, there's many, many, more. Its cause of that, I will not go back . BCMore</t>
   </si>
 </sst>
 </file>
@@ -1309,59 +1597,55 @@
       <c r="A2" t="n">
         <v>55798</v>
       </c>
-      <c r="B2" t="n">
-        <v>182557</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
       <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1369,190 +1653,180 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55798</v>
       </c>
-      <c r="B3" t="n">
-        <v>182558</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55798</v>
       </c>
-      <c r="B4" t="n">
-        <v>182559</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
         <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55798</v>
       </c>
-      <c r="B5" t="n">
-        <v>182560</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1560,54 +1834,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55798</v>
       </c>
-      <c r="B6" t="n">
-        <v>182561</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1621,66 +1891,62 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55798</v>
       </c>
-      <c r="B7" t="n">
-        <v>2433</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
       <c r="O7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1688,64 +1954,60 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55798</v>
       </c>
-      <c r="B8" t="n">
-        <v>182562</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1753,194 +2015,172 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55798</v>
       </c>
-      <c r="B9" t="n">
-        <v>182563</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55798</v>
       </c>
-      <c r="B10" t="n">
-        <v>340</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55798</v>
       </c>
-      <c r="B11" t="n">
-        <v>182564</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
       </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -1952,200 +2192,174 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55798</v>
       </c>
-      <c r="B12" t="n">
-        <v>182565</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>55798</v>
       </c>
-      <c r="B13" t="n">
-        <v>12673</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>55798</v>
       </c>
-      <c r="B14" t="n">
-        <v>24475</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2153,64 +2367,62 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>55798</v>
       </c>
-      <c r="B15" t="n">
-        <v>18703</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>92</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2218,63 +2430,59 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>55798</v>
       </c>
-      <c r="B16" t="n">
-        <v>182566</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2285,132 +2493,116 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>55798</v>
       </c>
-      <c r="B17" t="n">
-        <v>182567</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>55798</v>
       </c>
-      <c r="B18" t="n">
-        <v>182568</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
         <v>5</v>
       </c>
       <c r="R18" t="n">
         <v>5</v>
       </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2421,134 +2613,120 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>55798</v>
       </c>
-      <c r="B19" t="n">
-        <v>182569</v>
-      </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>184</v>
-      </c>
-      <c r="X19" t="s">
-        <v>185</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>55798</v>
       </c>
-      <c r="B20" t="n">
-        <v>182570</v>
-      </c>
-      <c r="C20" t="s">
-        <v>187</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s">
+        <v>109</v>
+      </c>
       <c r="P20" t="n">
         <v>5</v>
       </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2559,70 +2737,62 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>55798</v>
       </c>
-      <c r="B21" t="n">
-        <v>182571</v>
-      </c>
-      <c r="C21" t="s">
-        <v>193</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2630,362 +2800,304 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>55798</v>
       </c>
-      <c r="B22" t="n">
-        <v>182572</v>
-      </c>
-      <c r="C22" t="s">
-        <v>201</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="O22" t="s">
-        <v>137</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>55798</v>
       </c>
-      <c r="B23" t="n">
-        <v>182573</v>
-      </c>
-      <c r="C23" t="s">
-        <v>209</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="O23" t="s">
-        <v>92</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>216</v>
-      </c>
-      <c r="X23" t="s">
-        <v>217</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>55798</v>
       </c>
-      <c r="B24" t="n">
-        <v>182574</v>
-      </c>
-      <c r="C24" t="s">
-        <v>219</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>137</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>226</v>
-      </c>
-      <c r="X24" t="s">
-        <v>227</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>55798</v>
       </c>
-      <c r="B25" t="n">
-        <v>182575</v>
-      </c>
-      <c r="C25" t="s">
-        <v>229</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
         <v>4</v>
       </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>235</v>
-      </c>
-      <c r="X25" t="s">
-        <v>236</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>55798</v>
       </c>
-      <c r="B26" t="n">
-        <v>182576</v>
-      </c>
-      <c r="C26" t="s">
-        <v>238</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2993,149 +3105,1392 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>55798</v>
       </c>
-      <c r="B27" t="n">
-        <v>182577</v>
-      </c>
-      <c r="C27" t="s">
-        <v>244</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>55798</v>
       </c>
-      <c r="B28" t="n">
-        <v>182578</v>
-      </c>
-      <c r="C28" t="s">
-        <v>252</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="O28" t="s">
-        <v>137</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>153</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>183</v>
+      </c>
+      <c r="O30" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>232</v>
+      </c>
+      <c r="X31" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>236</v>
+      </c>
+      <c r="J32" t="s">
+        <v>237</v>
+      </c>
+      <c r="K32" t="s">
+        <v>238</v>
+      </c>
+      <c r="L32" t="s">
+        <v>239</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>245</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" t="s">
+        <v>249</v>
+      </c>
+      <c r="L34" t="s">
+        <v>250</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>259</v>
+      </c>
+      <c r="J36" t="s">
+        <v>260</v>
+      </c>
+      <c r="K36" t="s">
+        <v>261</v>
+      </c>
+      <c r="L36" t="s">
+        <v>262</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>263</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s">
+        <v>269</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O37" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>271</v>
+      </c>
+      <c r="X37" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>279</v>
+      </c>
+      <c r="X38" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>283</v>
+      </c>
+      <c r="J39" t="s">
+        <v>284</v>
+      </c>
+      <c r="K39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L39" t="s">
+        <v>286</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>287</v>
+      </c>
+      <c r="O39" t="s">
+        <v>109</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>288</v>
+      </c>
+      <c r="X39" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>292</v>
+      </c>
+      <c r="J40" t="s">
+        <v>293</v>
+      </c>
+      <c r="K40" t="s">
+        <v>294</v>
+      </c>
+      <c r="L40" t="s">
+        <v>295</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>296</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>297</v>
+      </c>
+      <c r="X40" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>300</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J41" t="s">
+        <v>302</v>
+      </c>
+      <c r="K41" t="s">
+        <v>303</v>
+      </c>
+      <c r="L41" t="s">
+        <v>304</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>296</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>305</v>
+      </c>
+      <c r="X41" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>308</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>309</v>
+      </c>
+      <c r="J42" t="s">
+        <v>310</v>
+      </c>
+      <c r="K42" t="s">
+        <v>311</v>
+      </c>
+      <c r="L42" t="s">
+        <v>312</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>313</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>305</v>
+      </c>
+      <c r="X42" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>316</v>
+      </c>
+      <c r="J43" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" t="s">
+        <v>317</v>
+      </c>
+      <c r="L43" t="s">
+        <v>318</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>305</v>
+      </c>
+      <c r="X43" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>320</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>321</v>
+      </c>
+      <c r="J44" t="s">
+        <v>322</v>
+      </c>
+      <c r="K44" t="s">
+        <v>323</v>
+      </c>
+      <c r="L44" t="s">
+        <v>324</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>326</v>
+      </c>
+      <c r="J45" t="s">
+        <v>327</v>
+      </c>
+      <c r="K45" t="s">
+        <v>328</v>
+      </c>
+      <c r="L45" t="s">
+        <v>329</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>330</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>332</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>333</v>
+      </c>
+      <c r="J46" t="s">
+        <v>334</v>
+      </c>
+      <c r="K46" t="s">
+        <v>335</v>
+      </c>
+      <c r="L46" t="s">
+        <v>336</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>337</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>55798</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>338</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>339</v>
+      </c>
+      <c r="J47" t="s">
+        <v>340</v>
+      </c>
+      <c r="K47" t="s">
+        <v>341</v>
+      </c>
+      <c r="L47" t="s">
+        <v>342</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" t="s">
+        <v>109</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
